--- a/studies/peitek-2021-program-comprehension-and-cc-metrics-fmri/data/dataset-peitek-2021.xlsx
+++ b/studies/peitek-2021-program-comprehension-and-cc-metrics-fmri/data/dataset-peitek-2021.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10" conformance="strict">
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/utilisateur/Documents/these/studies/cpx/studies/peitek-2021-program-comprehension-and-cc-metrics-fmri/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{D1E46EBA-FD66-C44C-94A8-5085EE8D3152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{33FA2EE9-4F51-9943-A848-9BEB14AC0700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35840" yWindow="0" windowWidth="38400" windowHeight="21600"/>
+    <workbookView xWindow="35840" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataset-peitek-2021" sheetId="1" r:id="rId1"/>
     <sheet name="SnippetComplexityMetricsValues" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
@@ -469,7 +469,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -980,16 +980,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1000,9 +997,6 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1012,6 +1006,15 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1366,11 +1369,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V400"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
-      <selection activeCell="U303" sqref="U303"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="107" workbookViewId="0">
+      <selection activeCell="T293" sqref="T293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1389,73 +1392,73 @@
     <col min="17" max="17" width="4.5" style="1" customWidth="1"/>
     <col min="18" max="18" width="25.1640625" style="1" customWidth="1"/>
     <col min="19" max="20" width="10.83203125" style="1"/>
-    <col min="21" max="21" width="19.83203125" style="5" customWidth="1"/>
+    <col min="21" max="21" width="19.83203125" style="4" customWidth="1"/>
     <col min="22" max="22" width="19.5" style="1" customWidth="1"/>
     <col min="23" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="8" t="s">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="U1" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="7" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1503,7 +1506,7 @@
         <f>IF(H2=0,0,N2)</f>
         <v>0</v>
       </c>
-      <c r="P2" s="3">
+      <c r="P2" s="11">
         <f>SUM(O2:O20)/SUM(H2:H20)</f>
         <v>41242</v>
       </c>
@@ -1519,7 +1522,7 @@
         <f>19-S2</f>
         <v>10</v>
       </c>
-      <c r="U2" s="5">
+      <c r="U2" s="4">
         <f>ROUND(V2/1000,2)</f>
         <v>41.24</v>
       </c>
@@ -1572,7 +1575,7 @@
         <f t="shared" ref="O3:O66" si="0">IF(H3=0,0,N3)</f>
         <v>0</v>
       </c>
-      <c r="P3" s="3"/>
+      <c r="P3" s="11"/>
       <c r="R3" s="1" t="str">
         <f>D21</f>
         <v>ContainsSubstring</v>
@@ -1585,7 +1588,7 @@
         <f>19-S3</f>
         <v>13</v>
       </c>
-      <c r="U3" s="5">
+      <c r="U3" s="4">
         <f t="shared" ref="U3:U16" si="1">ROUND(V3/1000,2)</f>
         <v>33.33</v>
       </c>
@@ -1641,7 +1644,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P4" s="3"/>
+      <c r="P4" s="11"/>
       <c r="R4" s="1" t="str">
         <f>D40</f>
         <v>CountVowels</v>
@@ -1651,10 +1654,10 @@
         <v>17</v>
       </c>
       <c r="T4" s="1">
-        <f t="shared" ref="T4:T19" si="2">19-S4</f>
+        <f t="shared" ref="T4:T16" si="2">19-S4</f>
         <v>2</v>
       </c>
-      <c r="U4" s="5">
+      <c r="U4" s="4">
         <f t="shared" si="1"/>
         <v>26.95</v>
       </c>
@@ -1710,7 +1713,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P5" s="3"/>
+      <c r="P5" s="11"/>
       <c r="R5" s="1" t="str">
         <f>D59</f>
         <v>DumbSort</v>
@@ -1723,7 +1726,7 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="U5" s="5">
+      <c r="U5" s="4">
         <f t="shared" si="1"/>
         <v>37.869999999999997</v>
       </c>
@@ -1779,7 +1782,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P6" s="3"/>
+      <c r="P6" s="11"/>
       <c r="R6" s="1" t="str">
         <f>D78</f>
         <v>GreatestCommonDivisor</v>
@@ -1792,7 +1795,7 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="U6" s="5">
+      <c r="U6" s="4">
         <f t="shared" si="1"/>
         <v>41.82</v>
       </c>
@@ -1848,7 +1851,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P7" s="3"/>
+      <c r="P7" s="11"/>
       <c r="R7" s="1" t="str">
         <f>D97</f>
         <v>hIndex</v>
@@ -1861,7 +1864,7 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="U7" s="5">
+      <c r="U7" s="4">
         <f t="shared" si="1"/>
         <v>40.78</v>
       </c>
@@ -1917,7 +1920,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P8" s="3"/>
+      <c r="P8" s="11"/>
       <c r="R8" s="1" t="str">
         <f>D116</f>
         <v>isHurricane</v>
@@ -1930,7 +1933,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U8" s="5">
+      <c r="U8" s="4">
         <f t="shared" si="1"/>
         <v>21.52</v>
       </c>
@@ -1986,7 +1989,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P9" s="3"/>
+      <c r="P9" s="11"/>
       <c r="R9" s="1" t="str">
         <f>D135</f>
         <v>isPalindrome</v>
@@ -1999,7 +2002,7 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="U9" s="5">
+      <c r="U9" s="4">
         <f t="shared" si="1"/>
         <v>34.869999999999997</v>
       </c>
@@ -2055,7 +2058,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P10" s="3"/>
+      <c r="P10" s="11"/>
       <c r="R10" s="1" t="str">
         <f>D154</f>
         <v>lengthOfLastWord</v>
@@ -2068,7 +2071,7 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="U10" s="5">
+      <c r="U10" s="4">
         <f t="shared" si="1"/>
         <v>37.65</v>
       </c>
@@ -2124,7 +2127,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P11" s="3"/>
+      <c r="P11" s="11"/>
       <c r="R11" s="1" t="str">
         <f>D173</f>
         <v>RecursiveBinaryToDecimal</v>
@@ -2137,7 +2140,7 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="U11" s="5">
+      <c r="U11" s="4">
         <f t="shared" si="1"/>
         <v>36.979999999999997</v>
       </c>
@@ -2193,7 +2196,7 @@
         <f t="shared" si="0"/>
         <v>58252</v>
       </c>
-      <c r="P12" s="3"/>
+      <c r="P12" s="11"/>
       <c r="R12" s="1" t="str">
         <f>D192</f>
         <v>RecursiveCrossSum</v>
@@ -2206,7 +2209,7 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="U12" s="5">
+      <c r="U12" s="4">
         <f t="shared" si="1"/>
         <v>24.25</v>
       </c>
@@ -2262,7 +2265,7 @@
         <f t="shared" si="0"/>
         <v>59958</v>
       </c>
-      <c r="P13" s="3"/>
+      <c r="P13" s="11"/>
       <c r="R13" s="1" t="str">
         <f>D211</f>
         <v>RecursiveFactorial</v>
@@ -2275,7 +2278,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="U13" s="5">
+      <c r="U13" s="4">
         <f t="shared" si="1"/>
         <v>21.25</v>
       </c>
@@ -2331,7 +2334,7 @@
         <f t="shared" si="0"/>
         <v>35991</v>
       </c>
-      <c r="P14" s="3"/>
+      <c r="P14" s="11"/>
       <c r="R14" s="1" t="str">
         <f>D230</f>
         <v>RecursiveFibonacciVariant</v>
@@ -2344,7 +2347,7 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="U14" s="5">
+      <c r="U14" s="4">
         <f t="shared" si="1"/>
         <v>31.74</v>
       </c>
@@ -2397,7 +2400,7 @@
         <f t="shared" si="0"/>
         <v>53040</v>
       </c>
-      <c r="P15" s="3"/>
+      <c r="P15" s="11"/>
       <c r="R15" s="1" t="str">
         <f>D249</f>
         <v>RecursivePower</v>
@@ -2410,7 +2413,7 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="U15" s="5">
+      <c r="U15" s="4">
         <f t="shared" si="1"/>
         <v>28.54</v>
       </c>
@@ -2466,7 +2469,7 @@
         <f t="shared" si="0"/>
         <v>6383</v>
       </c>
-      <c r="P16" s="3"/>
+      <c r="P16" s="11"/>
       <c r="R16" s="1" t="str">
         <f>D268</f>
         <v>SquareRoot</v>
@@ -2479,7 +2482,7 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="U16" s="5">
+      <c r="U16" s="4">
         <f t="shared" si="1"/>
         <v>34.83</v>
       </c>
@@ -2535,7 +2538,7 @@
         <f t="shared" si="0"/>
         <v>17835</v>
       </c>
-      <c r="P17" s="3"/>
+      <c r="P17" s="11"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
@@ -2584,7 +2587,7 @@
         <f t="shared" si="0"/>
         <v>36399</v>
       </c>
-      <c r="P18" s="3"/>
+      <c r="P18" s="11"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
@@ -2633,7 +2636,7 @@
         <f t="shared" si="0"/>
         <v>59594</v>
       </c>
-      <c r="P19" s="3"/>
+      <c r="P19" s="11"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
@@ -2682,7 +2685,7 @@
         <f t="shared" si="0"/>
         <v>43726</v>
       </c>
-      <c r="P20" s="3"/>
+      <c r="P20" s="11"/>
     </row>
     <row r="21" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
@@ -2728,7 +2731,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="11">
         <f>SUM(O21:O39)/SUM(H21:H39)</f>
         <v>33329.833333333336</v>
       </c>
@@ -2780,7 +2783,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P22" s="3"/>
+      <c r="P22" s="11"/>
     </row>
     <row r="23" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
@@ -2829,7 +2832,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P23" s="3"/>
+      <c r="P23" s="11"/>
     </row>
     <row r="24" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
@@ -2878,7 +2881,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P24" s="3"/>
+      <c r="P24" s="11"/>
     </row>
     <row r="25" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
@@ -2927,7 +2930,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P25" s="3"/>
+      <c r="P25" s="11"/>
     </row>
     <row r="26" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
@@ -2976,7 +2979,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P26" s="3"/>
+      <c r="P26" s="11"/>
     </row>
     <row r="27" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
@@ -3025,7 +3028,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P27" s="3"/>
+      <c r="P27" s="11"/>
     </row>
     <row r="28" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
@@ -3074,7 +3077,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P28" s="3"/>
+      <c r="P28" s="11"/>
     </row>
     <row r="29" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
@@ -3123,7 +3126,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P29" s="3"/>
+      <c r="P29" s="11"/>
     </row>
     <row r="30" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
@@ -3172,7 +3175,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P30" s="3"/>
+      <c r="P30" s="11"/>
     </row>
     <row r="31" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
@@ -3221,7 +3224,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P31" s="3"/>
+      <c r="P31" s="11"/>
     </row>
     <row r="32" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
@@ -3270,7 +3273,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P32" s="3"/>
+      <c r="P32" s="11"/>
     </row>
     <row r="33" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
@@ -3319,7 +3322,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P33" s="3"/>
+      <c r="P33" s="11"/>
     </row>
     <row r="34" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
@@ -3368,7 +3371,7 @@
         <f t="shared" si="0"/>
         <v>37264</v>
       </c>
-      <c r="P34" s="3"/>
+      <c r="P34" s="11"/>
     </row>
     <row r="35" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
@@ -3417,7 +3420,7 @@
         <f t="shared" si="0"/>
         <v>39839</v>
       </c>
-      <c r="P35" s="3"/>
+      <c r="P35" s="11"/>
     </row>
     <row r="36" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
@@ -3466,7 +3469,7 @@
         <f t="shared" si="0"/>
         <v>34680</v>
       </c>
-      <c r="P36" s="3"/>
+      <c r="P36" s="11"/>
     </row>
     <row r="37" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
@@ -3515,7 +3518,7 @@
         <f t="shared" si="0"/>
         <v>12215</v>
       </c>
-      <c r="P37" s="3"/>
+      <c r="P37" s="11"/>
     </row>
     <row r="38" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
@@ -3564,7 +3567,7 @@
         <f t="shared" si="0"/>
         <v>19018</v>
       </c>
-      <c r="P38" s="3"/>
+      <c r="P38" s="11"/>
     </row>
     <row r="39" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
@@ -3613,7 +3616,7 @@
         <f t="shared" si="0"/>
         <v>56963</v>
       </c>
-      <c r="P39" s="3"/>
+      <c r="P39" s="11"/>
     </row>
     <row r="40" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
@@ -3662,7 +3665,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P40" s="3">
+      <c r="P40" s="11">
         <f>SUM(O40:O58)/SUM(H40:H58)</f>
         <v>26948.058823529413</v>
       </c>
@@ -3714,7 +3717,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P41" s="3"/>
+      <c r="P41" s="11"/>
     </row>
     <row r="42" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
@@ -3763,7 +3766,7 @@
         <f t="shared" si="0"/>
         <v>45205</v>
       </c>
-      <c r="P42" s="3"/>
+      <c r="P42" s="11"/>
     </row>
     <row r="43" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
@@ -3812,7 +3815,7 @@
         <f t="shared" si="0"/>
         <v>18872</v>
       </c>
-      <c r="P43" s="3"/>
+      <c r="P43" s="11"/>
     </row>
     <row r="44" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
@@ -3861,7 +3864,7 @@
         <f t="shared" si="0"/>
         <v>40815</v>
       </c>
-      <c r="P44" s="3"/>
+      <c r="P44" s="11"/>
     </row>
     <row r="45" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
@@ -3910,7 +3913,7 @@
         <f t="shared" si="0"/>
         <v>30804</v>
       </c>
-      <c r="P45" s="3"/>
+      <c r="P45" s="11"/>
     </row>
     <row r="46" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
@@ -3959,7 +3962,7 @@
         <f t="shared" si="0"/>
         <v>15760</v>
       </c>
-      <c r="P46" s="3"/>
+      <c r="P46" s="11"/>
     </row>
     <row r="47" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
@@ -4008,7 +4011,7 @@
         <f t="shared" si="0"/>
         <v>26736</v>
       </c>
-      <c r="P47" s="3"/>
+      <c r="P47" s="11"/>
     </row>
     <row r="48" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
@@ -4057,7 +4060,7 @@
         <f t="shared" si="0"/>
         <v>30045</v>
       </c>
-      <c r="P48" s="3"/>
+      <c r="P48" s="11"/>
     </row>
     <row r="49" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
@@ -4106,7 +4109,7 @@
         <f t="shared" si="0"/>
         <v>21082</v>
       </c>
-      <c r="P49" s="3"/>
+      <c r="P49" s="11"/>
     </row>
     <row r="50" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
@@ -4155,7 +4158,7 @@
         <f t="shared" si="0"/>
         <v>23240</v>
       </c>
-      <c r="P50" s="3"/>
+      <c r="P50" s="11"/>
     </row>
     <row r="51" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
@@ -4204,7 +4207,7 @@
         <f t="shared" si="0"/>
         <v>14564</v>
       </c>
-      <c r="P51" s="3"/>
+      <c r="P51" s="11"/>
     </row>
     <row r="52" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
@@ -4253,7 +4256,7 @@
         <f t="shared" si="0"/>
         <v>11862</v>
       </c>
-      <c r="P52" s="3"/>
+      <c r="P52" s="11"/>
     </row>
     <row r="53" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
@@ -4302,7 +4305,7 @@
         <f t="shared" si="0"/>
         <v>20659</v>
       </c>
-      <c r="P53" s="3"/>
+      <c r="P53" s="11"/>
     </row>
     <row r="54" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
@@ -4351,7 +4354,7 @@
         <f t="shared" si="0"/>
         <v>21746</v>
       </c>
-      <c r="P54" s="3"/>
+      <c r="P54" s="11"/>
     </row>
     <row r="55" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
@@ -4400,7 +4403,7 @@
         <f t="shared" si="0"/>
         <v>28607</v>
       </c>
-      <c r="P55" s="3"/>
+      <c r="P55" s="11"/>
     </row>
     <row r="56" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
@@ -4449,7 +4452,7 @@
         <f t="shared" si="0"/>
         <v>37724</v>
       </c>
-      <c r="P56" s="3"/>
+      <c r="P56" s="11"/>
     </row>
     <row r="57" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
@@ -4498,7 +4501,7 @@
         <f t="shared" si="0"/>
         <v>45216</v>
       </c>
-      <c r="P57" s="3"/>
+      <c r="P57" s="11"/>
     </row>
     <row r="58" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
@@ -4547,7 +4550,7 @@
         <f t="shared" si="0"/>
         <v>25180</v>
       </c>
-      <c r="P58" s="3"/>
+      <c r="P58" s="11"/>
     </row>
     <row r="59" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
@@ -4596,7 +4599,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P59" s="3">
+      <c r="P59" s="11">
         <f>SUM(O59:O77)/SUM(H59:H77)</f>
         <v>37867.533333333333</v>
       </c>
@@ -4648,7 +4651,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P60" s="3"/>
+      <c r="P60" s="11"/>
     </row>
     <row r="61" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
@@ -4697,7 +4700,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P61" s="3"/>
+      <c r="P61" s="11"/>
     </row>
     <row r="62" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
@@ -4746,7 +4749,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P62" s="3"/>
+      <c r="P62" s="11"/>
     </row>
     <row r="63" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
@@ -4795,7 +4798,7 @@
         <f t="shared" si="0"/>
         <v>40162</v>
       </c>
-      <c r="P63" s="3"/>
+      <c r="P63" s="11"/>
     </row>
     <row r="64" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
@@ -4844,7 +4847,7 @@
         <f t="shared" si="0"/>
         <v>18875</v>
       </c>
-      <c r="P64" s="3"/>
+      <c r="P64" s="11"/>
     </row>
     <row r="65" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
@@ -4890,7 +4893,7 @@
         <f t="shared" si="0"/>
         <v>56353</v>
       </c>
-      <c r="P65" s="3"/>
+      <c r="P65" s="11"/>
     </row>
     <row r="66" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
@@ -4939,7 +4942,7 @@
         <f t="shared" si="0"/>
         <v>60023</v>
       </c>
-      <c r="P66" s="3"/>
+      <c r="P66" s="11"/>
     </row>
     <row r="67" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
@@ -4988,7 +4991,7 @@
         <f t="shared" ref="O67:O130" si="3">IF(H67=0,0,N67)</f>
         <v>49672</v>
       </c>
-      <c r="P67" s="3"/>
+      <c r="P67" s="11"/>
     </row>
     <row r="68" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
@@ -5034,7 +5037,7 @@
         <f t="shared" si="3"/>
         <v>56084</v>
       </c>
-      <c r="P68" s="3"/>
+      <c r="P68" s="11"/>
     </row>
     <row r="69" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
@@ -5083,7 +5086,7 @@
         <f t="shared" si="3"/>
         <v>42451</v>
       </c>
-      <c r="P69" s="3"/>
+      <c r="P69" s="11"/>
     </row>
     <row r="70" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
@@ -5129,7 +5132,7 @@
         <f t="shared" si="3"/>
         <v>56377</v>
       </c>
-      <c r="P70" s="3"/>
+      <c r="P70" s="11"/>
     </row>
     <row r="71" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
@@ -5178,7 +5181,7 @@
         <f t="shared" si="3"/>
         <v>11723</v>
       </c>
-      <c r="P71" s="3"/>
+      <c r="P71" s="11"/>
     </row>
     <row r="72" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
@@ -5224,7 +5227,7 @@
         <f t="shared" si="3"/>
         <v>10772</v>
       </c>
-      <c r="P72" s="3"/>
+      <c r="P72" s="11"/>
     </row>
     <row r="73" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
@@ -5273,7 +5276,7 @@
         <f t="shared" si="3"/>
         <v>24472</v>
       </c>
-      <c r="P73" s="3"/>
+      <c r="P73" s="11"/>
     </row>
     <row r="74" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
@@ -5322,7 +5325,7 @@
         <f t="shared" si="3"/>
         <v>20298</v>
       </c>
-      <c r="P74" s="3"/>
+      <c r="P74" s="11"/>
     </row>
     <row r="75" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
@@ -5368,7 +5371,7 @@
         <f t="shared" si="3"/>
         <v>59011</v>
       </c>
-      <c r="P75" s="3"/>
+      <c r="P75" s="11"/>
     </row>
     <row r="76" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
@@ -5417,7 +5420,7 @@
         <f t="shared" si="3"/>
         <v>20662</v>
       </c>
-      <c r="P76" s="3"/>
+      <c r="P76" s="11"/>
     </row>
     <row r="77" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
@@ -5463,7 +5466,7 @@
         <f t="shared" si="3"/>
         <v>41078</v>
       </c>
-      <c r="P77" s="3"/>
+      <c r="P77" s="11"/>
     </row>
     <row r="78" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
@@ -5512,7 +5515,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P78" s="3">
+      <c r="P78" s="11">
         <f>SUM(O78:O96)/SUM(H78:H96)</f>
         <v>41817.666666666664</v>
       </c>
@@ -5561,7 +5564,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P79" s="3"/>
+      <c r="P79" s="11"/>
     </row>
     <row r="80" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
@@ -5610,7 +5613,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P80" s="3"/>
+      <c r="P80" s="11"/>
     </row>
     <row r="81" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
@@ -5659,7 +5662,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P81" s="3"/>
+      <c r="P81" s="11"/>
     </row>
     <row r="82" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
@@ -5708,7 +5711,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P82" s="3"/>
+      <c r="P82" s="11"/>
     </row>
     <row r="83" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
@@ -5757,7 +5760,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P83" s="3"/>
+      <c r="P83" s="11"/>
     </row>
     <row r="84" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
@@ -5806,7 +5809,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P84" s="3"/>
+      <c r="P84" s="11"/>
     </row>
     <row r="85" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
@@ -5855,7 +5858,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P85" s="3"/>
+      <c r="P85" s="11"/>
     </row>
     <row r="86" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
@@ -5904,7 +5907,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P86" s="3"/>
+      <c r="P86" s="11"/>
     </row>
     <row r="87" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
@@ -5953,7 +5956,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P87" s="3"/>
+      <c r="P87" s="11"/>
     </row>
     <row r="88" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
@@ -6002,7 +6005,7 @@
         <f t="shared" si="3"/>
         <v>45047</v>
       </c>
-      <c r="P88" s="3"/>
+      <c r="P88" s="11"/>
     </row>
     <row r="89" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
@@ -6051,7 +6054,7 @@
         <f t="shared" si="3"/>
         <v>59138</v>
       </c>
-      <c r="P89" s="3"/>
+      <c r="P89" s="11"/>
     </row>
     <row r="90" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
@@ -6100,7 +6103,7 @@
         <f t="shared" si="3"/>
         <v>56632</v>
       </c>
-      <c r="P90" s="3"/>
+      <c r="P90" s="11"/>
     </row>
     <row r="91" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
@@ -6149,7 +6152,7 @@
         <f t="shared" si="3"/>
         <v>11119</v>
       </c>
-      <c r="P91" s="3"/>
+      <c r="P91" s="11"/>
     </row>
     <row r="92" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
@@ -6198,7 +6201,7 @@
         <f t="shared" si="3"/>
         <v>16825</v>
       </c>
-      <c r="P92" s="3"/>
+      <c r="P92" s="11"/>
     </row>
     <row r="93" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
@@ -6244,7 +6247,7 @@
         <f t="shared" si="3"/>
         <v>41893</v>
       </c>
-      <c r="P93" s="3"/>
+      <c r="P93" s="11"/>
     </row>
     <row r="94" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
@@ -6293,7 +6296,7 @@
         <f t="shared" si="3"/>
         <v>43408</v>
       </c>
-      <c r="P94" s="3"/>
+      <c r="P94" s="11"/>
     </row>
     <row r="95" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
@@ -6342,7 +6345,7 @@
         <f t="shared" si="3"/>
         <v>47153</v>
       </c>
-      <c r="P95" s="3"/>
+      <c r="P95" s="11"/>
     </row>
     <row r="96" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
@@ -6391,7 +6394,7 @@
         <f t="shared" si="3"/>
         <v>55144</v>
       </c>
-      <c r="P96" s="3"/>
+      <c r="P96" s="11"/>
     </row>
     <row r="97" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
@@ -6440,7 +6443,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P97" s="3">
+      <c r="P97" s="11">
         <f>SUM(O97:O115)/SUM(H97:H115)</f>
         <v>40783.199999999997</v>
       </c>
@@ -6492,7 +6495,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P98" s="3"/>
+      <c r="P98" s="11"/>
     </row>
     <row r="99" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
@@ -6541,7 +6544,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P99" s="3"/>
+      <c r="P99" s="11"/>
     </row>
     <row r="100" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
@@ -6590,7 +6593,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P100" s="3"/>
+      <c r="P100" s="11"/>
     </row>
     <row r="101" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
@@ -6639,7 +6642,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P101" s="3"/>
+      <c r="P101" s="11"/>
     </row>
     <row r="102" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
@@ -6688,7 +6691,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P102" s="3"/>
+      <c r="P102" s="11"/>
     </row>
     <row r="103" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
@@ -6737,7 +6740,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P103" s="3"/>
+      <c r="P103" s="11"/>
     </row>
     <row r="104" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
@@ -6786,7 +6789,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P104" s="3"/>
+      <c r="P104" s="11"/>
     </row>
     <row r="105" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
@@ -6835,7 +6838,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P105" s="3"/>
+      <c r="P105" s="11"/>
     </row>
     <row r="106" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
@@ -6884,7 +6887,7 @@
         <f t="shared" si="3"/>
         <v>51885</v>
       </c>
-      <c r="P106" s="3"/>
+      <c r="P106" s="11"/>
     </row>
     <row r="107" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
@@ -6933,7 +6936,7 @@
         <f t="shared" si="3"/>
         <v>49705</v>
       </c>
-      <c r="P107" s="3"/>
+      <c r="P107" s="11"/>
     </row>
     <row r="108" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
@@ -6982,7 +6985,7 @@
         <f t="shared" si="3"/>
         <v>59142</v>
       </c>
-      <c r="P108" s="3"/>
+      <c r="P108" s="11"/>
     </row>
     <row r="109" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
@@ -7031,7 +7034,7 @@
         <f t="shared" si="3"/>
         <v>35400</v>
       </c>
-      <c r="P109" s="3"/>
+      <c r="P109" s="11"/>
     </row>
     <row r="110" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
@@ -7080,7 +7083,7 @@
         <f t="shared" si="3"/>
         <v>42768</v>
       </c>
-      <c r="P110" s="3"/>
+      <c r="P110" s="11"/>
     </row>
     <row r="111" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
@@ -7129,7 +7132,7 @@
         <f t="shared" si="3"/>
         <v>10761</v>
       </c>
-      <c r="P111" s="3"/>
+      <c r="P111" s="11"/>
     </row>
     <row r="112" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
@@ -7178,7 +7181,7 @@
         <f t="shared" si="3"/>
         <v>14475</v>
       </c>
-      <c r="P112" s="3"/>
+      <c r="P112" s="11"/>
     </row>
     <row r="113" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
@@ -7227,7 +7230,7 @@
         <f t="shared" si="3"/>
         <v>35629</v>
       </c>
-      <c r="P113" s="3"/>
+      <c r="P113" s="11"/>
     </row>
     <row r="114" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
@@ -7276,7 +7279,7 @@
         <f t="shared" si="3"/>
         <v>53948</v>
       </c>
-      <c r="P114" s="3"/>
+      <c r="P114" s="11"/>
     </row>
     <row r="115" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
@@ -7325,7 +7328,7 @@
         <f t="shared" si="3"/>
         <v>54119</v>
       </c>
-      <c r="P115" s="3"/>
+      <c r="P115" s="11"/>
     </row>
     <row r="116" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
@@ -7374,7 +7377,7 @@
         <f t="shared" si="3"/>
         <v>21965</v>
       </c>
-      <c r="P116" s="3">
+      <c r="P116" s="11">
         <f>SUM(O116:O134)/SUM(H116:H134)</f>
         <v>21517</v>
       </c>
@@ -7426,7 +7429,7 @@
         <f t="shared" si="3"/>
         <v>47802</v>
       </c>
-      <c r="P117" s="3"/>
+      <c r="P117" s="11"/>
     </row>
     <row r="118" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
@@ -7475,7 +7478,7 @@
         <f t="shared" si="3"/>
         <v>19497</v>
       </c>
-      <c r="P118" s="3"/>
+      <c r="P118" s="11"/>
     </row>
     <row r="119" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
@@ -7524,7 +7527,7 @@
         <f t="shared" si="3"/>
         <v>21178</v>
       </c>
-      <c r="P119" s="3"/>
+      <c r="P119" s="11"/>
     </row>
     <row r="120" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
@@ -7573,7 +7576,7 @@
         <f t="shared" si="3"/>
         <v>25576</v>
       </c>
-      <c r="P120" s="3"/>
+      <c r="P120" s="11"/>
     </row>
     <row r="121" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
@@ -7622,7 +7625,7 @@
         <f t="shared" si="3"/>
         <v>10974</v>
       </c>
-      <c r="P121" s="3"/>
+      <c r="P121" s="11"/>
     </row>
     <row r="122" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
@@ -7671,7 +7674,7 @@
         <f t="shared" si="3"/>
         <v>19432</v>
       </c>
-      <c r="P122" s="3"/>
+      <c r="P122" s="11"/>
     </row>
     <row r="123" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
@@ -7717,7 +7720,7 @@
         <f t="shared" si="3"/>
         <v>20237</v>
       </c>
-      <c r="P123" s="3"/>
+      <c r="P123" s="11"/>
     </row>
     <row r="124" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
@@ -7766,7 +7769,7 @@
         <f t="shared" si="3"/>
         <v>24895</v>
       </c>
-      <c r="P124" s="3"/>
+      <c r="P124" s="11"/>
     </row>
     <row r="125" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
@@ -7815,7 +7818,7 @@
         <f t="shared" si="3"/>
         <v>14598</v>
       </c>
-      <c r="P125" s="3"/>
+      <c r="P125" s="11"/>
     </row>
     <row r="126" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
@@ -7864,7 +7867,7 @@
         <f t="shared" si="3"/>
         <v>20939</v>
       </c>
-      <c r="P126" s="3"/>
+      <c r="P126" s="11"/>
     </row>
     <row r="127" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
@@ -7913,7 +7916,7 @@
         <f t="shared" si="3"/>
         <v>27472</v>
       </c>
-      <c r="P127" s="3"/>
+      <c r="P127" s="11"/>
     </row>
     <row r="128" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
@@ -7962,7 +7965,7 @@
         <f t="shared" si="3"/>
         <v>16376</v>
       </c>
-      <c r="P128" s="3"/>
+      <c r="P128" s="11"/>
     </row>
     <row r="129" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
@@ -8011,7 +8014,7 @@
         <f t="shared" si="3"/>
         <v>21627</v>
       </c>
-      <c r="P129" s="3"/>
+      <c r="P129" s="11"/>
     </row>
     <row r="130" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
@@ -8060,7 +8063,7 @@
         <f t="shared" si="3"/>
         <v>23920</v>
       </c>
-      <c r="P130" s="3"/>
+      <c r="P130" s="11"/>
     </row>
     <row r="131" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
@@ -8109,7 +8112,7 @@
         <f t="shared" ref="O131:O194" si="4">IF(H131=0,0,N131)</f>
         <v>16504</v>
       </c>
-      <c r="P131" s="3"/>
+      <c r="P131" s="11"/>
     </row>
     <row r="132" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
@@ -8158,7 +8161,7 @@
         <f t="shared" si="4"/>
         <v>5892</v>
       </c>
-      <c r="P132" s="3"/>
+      <c r="P132" s="11"/>
     </row>
     <row r="133" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
@@ -8207,7 +8210,7 @@
         <f t="shared" si="4"/>
         <v>32178</v>
       </c>
-      <c r="P133" s="3"/>
+      <c r="P133" s="11"/>
     </row>
     <row r="134" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
@@ -8256,7 +8259,7 @@
         <f t="shared" si="4"/>
         <v>17761</v>
       </c>
-      <c r="P134" s="3"/>
+      <c r="P134" s="11"/>
     </row>
     <row r="135" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
@@ -8302,7 +8305,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P135" s="3">
+      <c r="P135" s="11">
         <f>SUM(O135:O153)/SUM(H135:H153)</f>
         <v>34865.466666666667</v>
       </c>
@@ -8351,7 +8354,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P136" s="3"/>
+      <c r="P136" s="11"/>
     </row>
     <row r="137" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
@@ -8400,7 +8403,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P137" s="3"/>
+      <c r="P137" s="11"/>
     </row>
     <row r="138" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
@@ -8446,7 +8449,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P138" s="3"/>
+      <c r="P138" s="11"/>
     </row>
     <row r="139" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
@@ -8495,7 +8498,7 @@
         <f t="shared" si="4"/>
         <v>40776</v>
       </c>
-      <c r="P139" s="3"/>
+      <c r="P139" s="11"/>
     </row>
     <row r="140" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
@@ -8544,7 +8547,7 @@
         <f t="shared" si="4"/>
         <v>41390</v>
       </c>
-      <c r="P140" s="3"/>
+      <c r="P140" s="11"/>
     </row>
     <row r="141" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
@@ -8590,7 +8593,7 @@
         <f t="shared" si="4"/>
         <v>37017</v>
       </c>
-      <c r="P141" s="3"/>
+      <c r="P141" s="11"/>
     </row>
     <row r="142" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
@@ -8636,7 +8639,7 @@
         <f t="shared" si="4"/>
         <v>32839</v>
       </c>
-      <c r="P142" s="3"/>
+      <c r="P142" s="11"/>
     </row>
     <row r="143" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
@@ -8685,7 +8688,7 @@
         <f t="shared" si="4"/>
         <v>42465</v>
       </c>
-      <c r="P143" s="3"/>
+      <c r="P143" s="11"/>
     </row>
     <row r="144" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
@@ -8734,7 +8737,7 @@
         <f t="shared" si="4"/>
         <v>41143</v>
       </c>
-      <c r="P144" s="3"/>
+      <c r="P144" s="11"/>
     </row>
     <row r="145" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
@@ -8783,7 +8786,7 @@
         <f t="shared" si="4"/>
         <v>28951</v>
       </c>
-      <c r="P145" s="3"/>
+      <c r="P145" s="11"/>
     </row>
     <row r="146" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
@@ -8832,7 +8835,7 @@
         <f t="shared" si="4"/>
         <v>4753</v>
       </c>
-      <c r="P146" s="3"/>
+      <c r="P146" s="11"/>
     </row>
     <row r="147" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
@@ -8881,7 +8884,7 @@
         <f t="shared" si="4"/>
         <v>16837</v>
       </c>
-      <c r="P147" s="3"/>
+      <c r="P147" s="11"/>
     </row>
     <row r="148" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
@@ -8930,7 +8933,7 @@
         <f t="shared" si="4"/>
         <v>31246</v>
       </c>
-      <c r="P148" s="3"/>
+      <c r="P148" s="11"/>
     </row>
     <row r="149" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
@@ -8979,7 +8982,7 @@
         <f t="shared" si="4"/>
         <v>49904</v>
       </c>
-      <c r="P149" s="3"/>
+      <c r="P149" s="11"/>
     </row>
     <row r="150" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
@@ -9028,7 +9031,7 @@
         <f t="shared" si="4"/>
         <v>41706</v>
       </c>
-      <c r="P150" s="3"/>
+      <c r="P150" s="11"/>
     </row>
     <row r="151" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
@@ -9077,7 +9080,7 @@
         <f t="shared" si="4"/>
         <v>39954</v>
       </c>
-      <c r="P151" s="3"/>
+      <c r="P151" s="11"/>
     </row>
     <row r="152" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
@@ -9126,7 +9129,7 @@
         <f t="shared" si="4"/>
         <v>32235</v>
       </c>
-      <c r="P152" s="3"/>
+      <c r="P152" s="11"/>
     </row>
     <row r="153" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
@@ -9175,7 +9178,7 @@
         <f t="shared" si="4"/>
         <v>41766</v>
       </c>
-      <c r="P153" s="3"/>
+      <c r="P153" s="11"/>
     </row>
     <row r="154" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
@@ -9224,7 +9227,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P154" s="3">
+      <c r="P154" s="11">
         <f>SUM(O154:O172)/SUM(H154:H172)</f>
         <v>37646.909090909088</v>
       </c>
@@ -9276,7 +9279,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P155" s="3"/>
+      <c r="P155" s="11"/>
     </row>
     <row r="156" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
@@ -9325,7 +9328,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P156" s="3"/>
+      <c r="P156" s="11"/>
     </row>
     <row r="157" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
@@ -9374,7 +9377,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P157" s="3"/>
+      <c r="P157" s="11"/>
     </row>
     <row r="158" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
@@ -9423,7 +9426,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P158" s="3"/>
+      <c r="P158" s="11"/>
     </row>
     <row r="159" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
@@ -9472,7 +9475,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P159" s="3"/>
+      <c r="P159" s="11"/>
     </row>
     <row r="160" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
@@ -9521,7 +9524,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P160" s="3"/>
+      <c r="P160" s="11"/>
     </row>
     <row r="161" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
@@ -9567,7 +9570,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P161" s="3"/>
+      <c r="P161" s="11"/>
     </row>
     <row r="162" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
@@ -9616,7 +9619,7 @@
         <f t="shared" si="4"/>
         <v>54885</v>
       </c>
-      <c r="P162" s="3"/>
+      <c r="P162" s="11"/>
     </row>
     <row r="163" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
@@ -9665,7 +9668,7 @@
         <f t="shared" si="4"/>
         <v>51067</v>
       </c>
-      <c r="P163" s="3"/>
+      <c r="P163" s="11"/>
     </row>
     <row r="164" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
@@ -9714,7 +9717,7 @@
         <f t="shared" si="4"/>
         <v>30745</v>
       </c>
-      <c r="P164" s="3"/>
+      <c r="P164" s="11"/>
     </row>
     <row r="165" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
@@ -9763,7 +9766,7 @@
         <f t="shared" si="4"/>
         <v>53221</v>
       </c>
-      <c r="P165" s="3"/>
+      <c r="P165" s="11"/>
     </row>
     <row r="166" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
@@ -9812,7 +9815,7 @@
         <f t="shared" si="4"/>
         <v>58837</v>
       </c>
-      <c r="P166" s="3"/>
+      <c r="P166" s="11"/>
     </row>
     <row r="167" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
@@ -9861,7 +9864,7 @@
         <f t="shared" si="4"/>
         <v>28893</v>
       </c>
-      <c r="P167" s="3"/>
+      <c r="P167" s="11"/>
     </row>
     <row r="168" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
@@ -9910,7 +9913,7 @@
         <f t="shared" si="4"/>
         <v>4167</v>
       </c>
-      <c r="P168" s="3"/>
+      <c r="P168" s="11"/>
     </row>
     <row r="169" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
@@ -9959,7 +9962,7 @@
         <f t="shared" si="4"/>
         <v>15012</v>
       </c>
-      <c r="P169" s="3"/>
+      <c r="P169" s="11"/>
     </row>
     <row r="170" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
@@ -10008,7 +10011,7 @@
         <f t="shared" si="4"/>
         <v>59786</v>
       </c>
-      <c r="P170" s="3"/>
+      <c r="P170" s="11"/>
     </row>
     <row r="171" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
@@ -10057,7 +10060,7 @@
         <f t="shared" si="4"/>
         <v>57184</v>
       </c>
-      <c r="P171" s="3"/>
+      <c r="P171" s="11"/>
     </row>
     <row r="172" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
@@ -10106,7 +10109,7 @@
         <f t="shared" si="4"/>
         <v>319</v>
       </c>
-      <c r="P172" s="3"/>
+      <c r="P172" s="11"/>
     </row>
     <row r="173" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
@@ -10152,7 +10155,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P173" s="3">
+      <c r="P173" s="11">
         <f>SUM(O173:O191)/SUM(H173:H191)</f>
         <v>36979.5</v>
       </c>
@@ -10204,7 +10207,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P174" s="3"/>
+      <c r="P174" s="11"/>
     </row>
     <row r="175" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
@@ -10253,7 +10256,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P175" s="3"/>
+      <c r="P175" s="11"/>
     </row>
     <row r="176" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
@@ -10302,7 +10305,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P176" s="3"/>
+      <c r="P176" s="11"/>
     </row>
     <row r="177" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
@@ -10351,7 +10354,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P177" s="3"/>
+      <c r="P177" s="11"/>
     </row>
     <row r="178" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
@@ -10400,7 +10403,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P178" s="3"/>
+      <c r="P178" s="11"/>
     </row>
     <row r="179" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
@@ -10449,7 +10452,7 @@
         <f t="shared" si="4"/>
         <v>38815</v>
       </c>
-      <c r="P179" s="3"/>
+      <c r="P179" s="11"/>
     </row>
     <row r="180" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
@@ -10498,7 +10501,7 @@
         <f t="shared" si="4"/>
         <v>48906</v>
       </c>
-      <c r="P180" s="3"/>
+      <c r="P180" s="11"/>
     </row>
     <row r="181" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
@@ -10547,7 +10550,7 @@
         <f t="shared" si="4"/>
         <v>54427</v>
       </c>
-      <c r="P181" s="3"/>
+      <c r="P181" s="11"/>
     </row>
     <row r="182" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
@@ -10596,7 +10599,7 @@
         <f t="shared" si="4"/>
         <v>57729</v>
       </c>
-      <c r="P182" s="3"/>
+      <c r="P182" s="11"/>
     </row>
     <row r="183" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
@@ -10645,7 +10648,7 @@
         <f t="shared" si="4"/>
         <v>34388</v>
       </c>
-      <c r="P183" s="3"/>
+      <c r="P183" s="11"/>
     </row>
     <row r="184" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
@@ -10694,7 +10697,7 @@
         <f t="shared" si="4"/>
         <v>45809</v>
       </c>
-      <c r="P184" s="3"/>
+      <c r="P184" s="11"/>
     </row>
     <row r="185" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
@@ -10718,30 +10721,30 @@
       <c r="G185" s="1">
         <v>0</v>
       </c>
-      <c r="H185" s="4">
-        <v>0</v>
-      </c>
-      <c r="I185" s="4">
-        <v>0</v>
-      </c>
-      <c r="J185" s="4">
-        <v>0</v>
-      </c>
-      <c r="K185" s="4">
-        <v>0</v>
-      </c>
-      <c r="L185" s="4">
-        <v>1</v>
-      </c>
-      <c r="M185" s="4">
+      <c r="H185" s="3">
+        <v>0</v>
+      </c>
+      <c r="I185" s="3">
+        <v>0</v>
+      </c>
+      <c r="J185" s="3">
+        <v>0</v>
+      </c>
+      <c r="K185" s="3">
+        <v>0</v>
+      </c>
+      <c r="L185" s="3">
+        <v>1</v>
+      </c>
+      <c r="M185" s="3">
         <v>230</v>
       </c>
-      <c r="N185" s="4"/>
-      <c r="O185" s="4">
+      <c r="N185" s="3"/>
+      <c r="O185" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P185" s="3"/>
+      <c r="P185" s="11"/>
     </row>
     <row r="186" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
@@ -10790,7 +10793,7 @@
         <f t="shared" si="4"/>
         <v>8657</v>
       </c>
-      <c r="P186" s="3"/>
+      <c r="P186" s="11"/>
     </row>
     <row r="187" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
@@ -10839,7 +10842,7 @@
         <f t="shared" si="4"/>
         <v>12036</v>
       </c>
-      <c r="P187" s="3"/>
+      <c r="P187" s="11"/>
     </row>
     <row r="188" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
@@ -10888,7 +10891,7 @@
         <f t="shared" si="4"/>
         <v>320</v>
       </c>
-      <c r="P188" s="3"/>
+      <c r="P188" s="11"/>
     </row>
     <row r="189" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
@@ -10937,7 +10940,7 @@
         <f t="shared" si="4"/>
         <v>56597</v>
       </c>
-      <c r="P189" s="3"/>
+      <c r="P189" s="11"/>
     </row>
     <row r="190" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
@@ -10986,7 +10989,7 @@
         <f t="shared" si="4"/>
         <v>31559</v>
       </c>
-      <c r="P190" s="3"/>
+      <c r="P190" s="11"/>
     </row>
     <row r="191" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
@@ -11035,7 +11038,7 @@
         <f t="shared" si="4"/>
         <v>54511</v>
       </c>
-      <c r="P191" s="3"/>
+      <c r="P191" s="11"/>
     </row>
     <row r="192" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
@@ -11081,7 +11084,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P192" s="3">
+      <c r="P192" s="11">
         <f>SUM(O192:O210)/SUM(H192:H210)</f>
         <v>24251.5</v>
       </c>
@@ -11133,7 +11136,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P193" s="3"/>
+      <c r="P193" s="11"/>
     </row>
     <row r="194" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
@@ -11179,7 +11182,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P194" s="3"/>
+      <c r="P194" s="11"/>
     </row>
     <row r="195" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
@@ -11228,7 +11231,7 @@
         <f t="shared" ref="O195:O258" si="5">IF(H195=0,0,N195)</f>
         <v>38908</v>
       </c>
-      <c r="P195" s="3"/>
+      <c r="P195" s="11"/>
     </row>
     <row r="196" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
@@ -11277,7 +11280,7 @@
         <f t="shared" si="5"/>
         <v>21649</v>
       </c>
-      <c r="P196" s="3"/>
+      <c r="P196" s="11"/>
     </row>
     <row r="197" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
@@ -11326,7 +11329,7 @@
         <f t="shared" si="5"/>
         <v>32631</v>
       </c>
-      <c r="P197" s="3"/>
+      <c r="P197" s="11"/>
     </row>
     <row r="198" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
@@ -11375,7 +11378,7 @@
         <f t="shared" si="5"/>
         <v>30821</v>
       </c>
-      <c r="P198" s="3"/>
+      <c r="P198" s="11"/>
     </row>
     <row r="199" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
@@ -11424,7 +11427,7 @@
         <f t="shared" si="5"/>
         <v>28940</v>
       </c>
-      <c r="P199" s="3"/>
+      <c r="P199" s="11"/>
     </row>
     <row r="200" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
@@ -11473,7 +11476,7 @@
         <f t="shared" si="5"/>
         <v>30070</v>
       </c>
-      <c r="P200" s="3"/>
+      <c r="P200" s="11"/>
     </row>
     <row r="201" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
@@ -11522,7 +11525,7 @@
         <f t="shared" si="5"/>
         <v>35938</v>
       </c>
-      <c r="P201" s="3"/>
+      <c r="P201" s="11"/>
     </row>
     <row r="202" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
@@ -11571,7 +11574,7 @@
         <f t="shared" si="5"/>
         <v>20132</v>
       </c>
-      <c r="P202" s="3"/>
+      <c r="P202" s="11"/>
     </row>
     <row r="203" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
@@ -11620,7 +11623,7 @@
         <f t="shared" si="5"/>
         <v>35626</v>
       </c>
-      <c r="P203" s="3"/>
+      <c r="P203" s="11"/>
     </row>
     <row r="204" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
@@ -11669,7 +11672,7 @@
         <f t="shared" si="5"/>
         <v>2318</v>
       </c>
-      <c r="P204" s="3"/>
+      <c r="P204" s="11"/>
     </row>
     <row r="205" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
@@ -11718,7 +11721,7 @@
         <f t="shared" si="5"/>
         <v>10507</v>
       </c>
-      <c r="P205" s="3"/>
+      <c r="P205" s="11"/>
     </row>
     <row r="206" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
@@ -11767,7 +11770,7 @@
         <f t="shared" si="5"/>
         <v>33407</v>
       </c>
-      <c r="P206" s="3"/>
+      <c r="P206" s="11"/>
     </row>
     <row r="207" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
@@ -11816,7 +11819,7 @@
         <f t="shared" si="5"/>
         <v>11026</v>
       </c>
-      <c r="P207" s="3"/>
+      <c r="P207" s="11"/>
     </row>
     <row r="208" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
@@ -11865,7 +11868,7 @@
         <f t="shared" si="5"/>
         <v>18708</v>
       </c>
-      <c r="P208" s="3"/>
+      <c r="P208" s="11"/>
     </row>
     <row r="209" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
@@ -11914,7 +11917,7 @@
         <f t="shared" si="5"/>
         <v>14010</v>
       </c>
-      <c r="P209" s="3"/>
+      <c r="P209" s="11"/>
     </row>
     <row r="210" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
@@ -11963,7 +11966,7 @@
         <f t="shared" si="5"/>
         <v>23333</v>
       </c>
-      <c r="P210" s="3"/>
+      <c r="P210" s="11"/>
     </row>
     <row r="211" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
@@ -12012,7 +12015,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P211" s="3">
+      <c r="P211" s="11">
         <f>SUM(O211:O229)/SUM(H211:H229)</f>
         <v>21254.833333333332</v>
       </c>
@@ -12061,7 +12064,7 @@
         <f t="shared" si="5"/>
         <v>16424</v>
       </c>
-      <c r="P212" s="3"/>
+      <c r="P212" s="11"/>
     </row>
     <row r="213" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
@@ -12110,7 +12113,7 @@
         <f t="shared" si="5"/>
         <v>20370</v>
       </c>
-      <c r="P213" s="3"/>
+      <c r="P213" s="11"/>
     </row>
     <row r="214" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
@@ -12159,7 +12162,7 @@
         <f t="shared" si="5"/>
         <v>33075</v>
       </c>
-      <c r="P214" s="3"/>
+      <c r="P214" s="11"/>
     </row>
     <row r="215" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
@@ -12208,7 +12211,7 @@
         <f t="shared" si="5"/>
         <v>16551</v>
       </c>
-      <c r="P215" s="3"/>
+      <c r="P215" s="11"/>
     </row>
     <row r="216" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
@@ -12254,7 +12257,7 @@
         <f t="shared" si="5"/>
         <v>26807</v>
       </c>
-      <c r="P216" s="3"/>
+      <c r="P216" s="11"/>
     </row>
     <row r="217" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
@@ -12303,7 +12306,7 @@
         <f t="shared" si="5"/>
         <v>22012</v>
       </c>
-      <c r="P217" s="3"/>
+      <c r="P217" s="11"/>
     </row>
     <row r="218" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
@@ -12349,7 +12352,7 @@
         <f t="shared" si="5"/>
         <v>22569</v>
       </c>
-      <c r="P218" s="3"/>
+      <c r="P218" s="11"/>
     </row>
     <row r="219" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
@@ -12395,7 +12398,7 @@
         <f t="shared" si="5"/>
         <v>43233</v>
       </c>
-      <c r="P219" s="3"/>
+      <c r="P219" s="11"/>
     </row>
     <row r="220" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
@@ -12441,7 +12444,7 @@
         <f t="shared" si="5"/>
         <v>15575</v>
       </c>
-      <c r="P220" s="3"/>
+      <c r="P220" s="11"/>
     </row>
     <row r="221" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
@@ -12490,7 +12493,7 @@
         <f t="shared" si="5"/>
         <v>27477</v>
       </c>
-      <c r="P221" s="3"/>
+      <c r="P221" s="11"/>
     </row>
     <row r="222" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
@@ -12536,7 +12539,7 @@
         <f t="shared" si="5"/>
         <v>7862</v>
       </c>
-      <c r="P222" s="3"/>
+      <c r="P222" s="11"/>
     </row>
     <row r="223" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
@@ -12585,7 +12588,7 @@
         <f t="shared" si="5"/>
         <v>17645</v>
       </c>
-      <c r="P223" s="3"/>
+      <c r="P223" s="11"/>
     </row>
     <row r="224" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
@@ -12634,7 +12637,7 @@
         <f t="shared" si="5"/>
         <v>14117</v>
       </c>
-      <c r="P224" s="3"/>
+      <c r="P224" s="11"/>
     </row>
     <row r="225" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
@@ -12683,7 +12686,7 @@
         <f t="shared" si="5"/>
         <v>17483</v>
       </c>
-      <c r="P225" s="3"/>
+      <c r="P225" s="11"/>
     </row>
     <row r="226" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
@@ -12729,7 +12732,7 @@
         <f t="shared" si="5"/>
         <v>14665</v>
       </c>
-      <c r="P226" s="3"/>
+      <c r="P226" s="11"/>
     </row>
     <row r="227" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
@@ -12778,7 +12781,7 @@
         <f t="shared" si="5"/>
         <v>10383</v>
       </c>
-      <c r="P227" s="3"/>
+      <c r="P227" s="11"/>
     </row>
     <row r="228" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
@@ -12827,7 +12830,7 @@
         <f t="shared" si="5"/>
         <v>14145</v>
       </c>
-      <c r="P228" s="3"/>
+      <c r="P228" s="11"/>
     </row>
     <row r="229" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
@@ -12876,7 +12879,7 @@
         <f t="shared" si="5"/>
         <v>42194</v>
       </c>
-      <c r="P229" s="3"/>
+      <c r="P229" s="11"/>
     </row>
     <row r="230" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
@@ -12925,7 +12928,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P230" s="3">
+      <c r="P230" s="11">
         <f>SUM(O230:O248)/SUM(H230:H248)</f>
         <v>31740.5</v>
       </c>
@@ -12977,7 +12980,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P231" s="3"/>
+      <c r="P231" s="11"/>
     </row>
     <row r="232" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
@@ -13026,7 +13029,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P232" s="3"/>
+      <c r="P232" s="11"/>
     </row>
     <row r="233" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
@@ -13075,7 +13078,7 @@
         <f t="shared" si="5"/>
         <v>25341</v>
       </c>
-      <c r="P233" s="3"/>
+      <c r="P233" s="11"/>
     </row>
     <row r="234" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
@@ -13124,7 +13127,7 @@
         <f t="shared" si="5"/>
         <v>36381</v>
       </c>
-      <c r="P234" s="3"/>
+      <c r="P234" s="11"/>
     </row>
     <row r="235" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
@@ -13173,7 +13176,7 @@
         <f t="shared" si="5"/>
         <v>25188</v>
       </c>
-      <c r="P235" s="3"/>
+      <c r="P235" s="11"/>
     </row>
     <row r="236" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
@@ -13222,7 +13225,7 @@
         <f t="shared" si="5"/>
         <v>35860</v>
       </c>
-      <c r="P236" s="3"/>
+      <c r="P236" s="11"/>
     </row>
     <row r="237" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
@@ -13271,7 +13274,7 @@
         <f t="shared" si="5"/>
         <v>27989</v>
       </c>
-      <c r="P237" s="3"/>
+      <c r="P237" s="11"/>
     </row>
     <row r="238" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
@@ -13320,7 +13323,7 @@
         <f t="shared" si="5"/>
         <v>41178</v>
       </c>
-      <c r="P238" s="3"/>
+      <c r="P238" s="11"/>
     </row>
     <row r="239" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
@@ -13369,7 +13372,7 @@
         <f t="shared" si="5"/>
         <v>36653</v>
       </c>
-      <c r="P239" s="3"/>
+      <c r="P239" s="11"/>
     </row>
     <row r="240" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
@@ -13418,7 +13421,7 @@
         <f t="shared" si="5"/>
         <v>25061</v>
       </c>
-      <c r="P240" s="3"/>
+      <c r="P240" s="11"/>
     </row>
     <row r="241" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
@@ -13467,7 +13470,7 @@
         <f t="shared" si="5"/>
         <v>52998</v>
       </c>
-      <c r="P241" s="3"/>
+      <c r="P241" s="11"/>
     </row>
     <row r="242" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
@@ -13516,7 +13519,7 @@
         <f t="shared" si="5"/>
         <v>16065</v>
       </c>
-      <c r="P242" s="3"/>
+      <c r="P242" s="11"/>
     </row>
     <row r="243" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
@@ -13565,7 +13568,7 @@
         <f t="shared" si="5"/>
         <v>12027</v>
       </c>
-      <c r="P243" s="3"/>
+      <c r="P243" s="11"/>
     </row>
     <row r="244" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
@@ -13614,7 +13617,7 @@
         <f t="shared" si="5"/>
         <v>16865</v>
       </c>
-      <c r="P244" s="3"/>
+      <c r="P244" s="11"/>
     </row>
     <row r="245" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
@@ -13663,7 +13666,7 @@
         <f t="shared" si="5"/>
         <v>50968</v>
       </c>
-      <c r="P245" s="3"/>
+      <c r="P245" s="11"/>
     </row>
     <row r="246" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
@@ -13712,7 +13715,7 @@
         <f t="shared" si="5"/>
         <v>30092</v>
       </c>
-      <c r="P246" s="3"/>
+      <c r="P246" s="11"/>
     </row>
     <row r="247" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
@@ -13761,7 +13764,7 @@
         <f t="shared" si="5"/>
         <v>22663</v>
       </c>
-      <c r="P247" s="3"/>
+      <c r="P247" s="11"/>
     </row>
     <row r="248" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
@@ -13810,7 +13813,7 @@
         <f t="shared" si="5"/>
         <v>52519</v>
       </c>
-      <c r="P248" s="3"/>
+      <c r="P248" s="11"/>
     </row>
     <row r="249" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
@@ -13859,7 +13862,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P249" s="3">
+      <c r="P249" s="11">
         <f>SUM(O249:O267)/SUM(H249:H267)</f>
         <v>28541.266666666666</v>
       </c>
@@ -13911,7 +13914,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P250" s="3"/>
+      <c r="P250" s="11"/>
     </row>
     <row r="251" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
@@ -13960,7 +13963,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P251" s="3"/>
+      <c r="P251" s="11"/>
     </row>
     <row r="252" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
@@ -14009,7 +14012,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P252" s="3"/>
+      <c r="P252" s="11"/>
     </row>
     <row r="253" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
@@ -14058,7 +14061,7 @@
         <f t="shared" si="5"/>
         <v>54894</v>
       </c>
-      <c r="P253" s="3"/>
+      <c r="P253" s="11"/>
     </row>
     <row r="254" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
@@ -14107,7 +14110,7 @@
         <f t="shared" si="5"/>
         <v>37036</v>
       </c>
-      <c r="P254" s="3"/>
+      <c r="P254" s="11"/>
     </row>
     <row r="255" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
@@ -14156,7 +14159,7 @@
         <f t="shared" si="5"/>
         <v>31366</v>
       </c>
-      <c r="P255" s="3"/>
+      <c r="P255" s="11"/>
     </row>
     <row r="256" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
@@ -14205,7 +14208,7 @@
         <f t="shared" si="5"/>
         <v>25711</v>
       </c>
-      <c r="P256" s="3"/>
+      <c r="P256" s="11"/>
     </row>
     <row r="257" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
@@ -14254,7 +14257,7 @@
         <f t="shared" si="5"/>
         <v>23546</v>
       </c>
-      <c r="P257" s="3"/>
+      <c r="P257" s="11"/>
     </row>
     <row r="258" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
@@ -14303,7 +14306,7 @@
         <f t="shared" si="5"/>
         <v>49815</v>
       </c>
-      <c r="P258" s="3"/>
+      <c r="P258" s="11"/>
     </row>
     <row r="259" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
@@ -14352,7 +14355,7 @@
         <f t="shared" ref="O259:O322" si="6">IF(H259=0,0,N259)</f>
         <v>17676</v>
       </c>
-      <c r="P259" s="3"/>
+      <c r="P259" s="11"/>
     </row>
     <row r="260" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
@@ -14401,7 +14404,7 @@
         <f t="shared" si="6"/>
         <v>42782</v>
       </c>
-      <c r="P260" s="3"/>
+      <c r="P260" s="11"/>
     </row>
     <row r="261" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
@@ -14450,7 +14453,7 @@
         <f t="shared" si="6"/>
         <v>13563</v>
       </c>
-      <c r="P261" s="3"/>
+      <c r="P261" s="11"/>
     </row>
     <row r="262" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
@@ -14499,7 +14502,7 @@
         <f t="shared" si="6"/>
         <v>12061</v>
       </c>
-      <c r="P262" s="3"/>
+      <c r="P262" s="11"/>
     </row>
     <row r="263" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
@@ -14548,7 +14551,7 @@
         <f t="shared" si="6"/>
         <v>16436</v>
       </c>
-      <c r="P263" s="3"/>
+      <c r="P263" s="11"/>
     </row>
     <row r="264" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
@@ -14597,7 +14600,7 @@
         <f t="shared" si="6"/>
         <v>12829</v>
       </c>
-      <c r="P264" s="3"/>
+      <c r="P264" s="11"/>
     </row>
     <row r="265" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
@@ -14646,7 +14649,7 @@
         <f t="shared" si="6"/>
         <v>23319</v>
       </c>
-      <c r="P265" s="3"/>
+      <c r="P265" s="11"/>
     </row>
     <row r="266" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
@@ -14695,7 +14698,7 @@
         <f t="shared" si="6"/>
         <v>32380</v>
       </c>
-      <c r="P266" s="3"/>
+      <c r="P266" s="11"/>
     </row>
     <row r="267" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
@@ -14744,7 +14747,7 @@
         <f t="shared" si="6"/>
         <v>34705</v>
       </c>
-      <c r="P267" s="3"/>
+      <c r="P267" s="11"/>
     </row>
     <row r="268" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
@@ -14793,7 +14796,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P268" s="3">
+      <c r="P268" s="11">
         <f>SUM(O268:O286)/SUM(H268:H286)</f>
         <v>34827.076923076922</v>
       </c>
@@ -14845,7 +14848,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P269" s="3"/>
+      <c r="P269" s="11"/>
     </row>
     <row r="270" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
@@ -14894,7 +14897,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P270" s="3"/>
+      <c r="P270" s="11"/>
     </row>
     <row r="271" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
@@ -14940,7 +14943,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P271" s="3"/>
+      <c r="P271" s="11"/>
     </row>
     <row r="272" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
@@ -14989,7 +14992,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P272" s="3"/>
+      <c r="P272" s="11"/>
     </row>
     <row r="273" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
@@ -15038,7 +15041,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P273" s="3"/>
+      <c r="P273" s="11"/>
     </row>
     <row r="274" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
@@ -15087,7 +15090,7 @@
         <f t="shared" si="6"/>
         <v>36423</v>
       </c>
-      <c r="P274" s="3"/>
+      <c r="P274" s="11"/>
     </row>
     <row r="275" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
@@ -15136,7 +15139,7 @@
         <f t="shared" si="6"/>
         <v>27435</v>
       </c>
-      <c r="P275" s="3"/>
+      <c r="P275" s="11"/>
     </row>
     <row r="276" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
@@ -15185,7 +15188,7 @@
         <f t="shared" si="6"/>
         <v>34435</v>
       </c>
-      <c r="P276" s="3"/>
+      <c r="P276" s="11"/>
     </row>
     <row r="277" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
@@ -15234,7 +15237,7 @@
         <f t="shared" si="6"/>
         <v>39100</v>
       </c>
-      <c r="P277" s="3"/>
+      <c r="P277" s="11"/>
     </row>
     <row r="278" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
@@ -15283,7 +15286,7 @@
         <f t="shared" si="6"/>
         <v>58671</v>
       </c>
-      <c r="P278" s="3"/>
+      <c r="P278" s="11"/>
     </row>
     <row r="279" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
@@ -15332,7 +15335,7 @@
         <f t="shared" si="6"/>
         <v>32156</v>
       </c>
-      <c r="P279" s="3"/>
+      <c r="P279" s="11"/>
     </row>
     <row r="280" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
@@ -15381,7 +15384,7 @@
         <f t="shared" si="6"/>
         <v>48955</v>
       </c>
-      <c r="P280" s="3"/>
+      <c r="P280" s="11"/>
     </row>
     <row r="281" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
@@ -15430,7 +15433,7 @@
         <f t="shared" si="6"/>
         <v>1724</v>
       </c>
-      <c r="P281" s="3"/>
+      <c r="P281" s="11"/>
     </row>
     <row r="282" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
@@ -15479,7 +15482,7 @@
         <f t="shared" si="6"/>
         <v>20112</v>
       </c>
-      <c r="P282" s="3"/>
+      <c r="P282" s="11"/>
     </row>
     <row r="283" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
@@ -15528,7 +15531,7 @@
         <f t="shared" si="6"/>
         <v>30408</v>
       </c>
-      <c r="P283" s="3"/>
+      <c r="P283" s="11"/>
     </row>
     <row r="284" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
@@ -15577,7 +15580,7 @@
         <f t="shared" si="6"/>
         <v>36970</v>
       </c>
-      <c r="P284" s="3"/>
+      <c r="P284" s="11"/>
     </row>
     <row r="285" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
@@ -15626,7 +15629,7 @@
         <f t="shared" si="6"/>
         <v>55164</v>
       </c>
-      <c r="P285" s="3"/>
+      <c r="P285" s="11"/>
     </row>
     <row r="286" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
@@ -15675,899 +15678,899 @@
         <f t="shared" si="6"/>
         <v>31199</v>
       </c>
-      <c r="P286" s="3"/>
+      <c r="P286" s="11"/>
     </row>
     <row r="287" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A287" s="6" t="s">
+      <c r="A287" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B287" s="6" t="s">
+      <c r="B287" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C287" s="6"/>
-      <c r="D287" s="6" t="s">
+      <c r="C287" s="5"/>
+      <c r="D287" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E287" s="6">
-        <v>1</v>
-      </c>
-      <c r="F287" s="6">
-        <v>1</v>
-      </c>
-      <c r="G287" s="6">
-        <v>0</v>
-      </c>
-      <c r="H287" s="6">
-        <v>0</v>
-      </c>
-      <c r="I287" s="6">
-        <v>1</v>
-      </c>
-      <c r="J287" s="6">
-        <v>1</v>
-      </c>
-      <c r="K287" s="6">
-        <v>0</v>
-      </c>
-      <c r="L287" s="6">
-        <v>1</v>
-      </c>
-      <c r="M287" s="6">
+      <c r="E287" s="5">
+        <v>1</v>
+      </c>
+      <c r="F287" s="5">
+        <v>1</v>
+      </c>
+      <c r="G287" s="5">
+        <v>0</v>
+      </c>
+      <c r="H287" s="5">
+        <v>0</v>
+      </c>
+      <c r="I287" s="5">
+        <v>1</v>
+      </c>
+      <c r="J287" s="5">
+        <v>1</v>
+      </c>
+      <c r="K287" s="5">
+        <v>0</v>
+      </c>
+      <c r="L287" s="5">
+        <v>1</v>
+      </c>
+      <c r="M287" s="5">
         <v>167</v>
       </c>
-      <c r="N287" s="6">
+      <c r="N287" s="5">
         <v>29136</v>
       </c>
-      <c r="O287" s="6">
+      <c r="O287" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P287" s="7">
+      <c r="P287" s="12">
         <f>SUM(O287:O305)/SUM(H287:H305)</f>
         <v>13361.714285714286</v>
       </c>
     </row>
     <row r="288" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A288" s="6" t="s">
+      <c r="A288" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B288" s="6" t="s">
+      <c r="B288" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C288" s="6"/>
-      <c r="D288" s="6" t="s">
+      <c r="C288" s="5"/>
+      <c r="D288" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E288" s="6">
-        <v>1</v>
-      </c>
-      <c r="F288" s="6">
-        <v>1</v>
-      </c>
-      <c r="G288" s="6">
-        <v>0</v>
-      </c>
-      <c r="H288" s="6">
-        <v>0</v>
-      </c>
-      <c r="I288" s="6">
-        <v>1</v>
-      </c>
-      <c r="J288" s="6">
-        <v>0</v>
-      </c>
-      <c r="K288" s="6">
-        <v>1</v>
-      </c>
-      <c r="L288" s="6">
+      <c r="E288" s="5">
+        <v>1</v>
+      </c>
+      <c r="F288" s="5">
+        <v>1</v>
+      </c>
+      <c r="G288" s="5">
+        <v>0</v>
+      </c>
+      <c r="H288" s="5">
+        <v>0</v>
+      </c>
+      <c r="I288" s="5">
+        <v>1</v>
+      </c>
+      <c r="J288" s="5">
+        <v>0</v>
+      </c>
+      <c r="K288" s="5">
+        <v>1</v>
+      </c>
+      <c r="L288" s="5">
         <v>8</v>
       </c>
-      <c r="M288" s="6">
-        <v>0</v>
-      </c>
-      <c r="N288" s="6">
+      <c r="M288" s="5">
+        <v>0</v>
+      </c>
+      <c r="N288" s="5">
         <v>10338</v>
       </c>
-      <c r="O288" s="6">
+      <c r="O288" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P288" s="7"/>
+      <c r="P288" s="12"/>
     </row>
     <row r="289" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A289" s="6" t="s">
+      <c r="A289" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B289" s="6" t="s">
+      <c r="B289" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C289" s="6"/>
-      <c r="D289" s="6" t="s">
+      <c r="C289" s="5"/>
+      <c r="D289" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E289" s="6">
-        <v>1</v>
-      </c>
-      <c r="F289" s="6">
-        <v>0</v>
-      </c>
-      <c r="G289" s="6">
-        <v>1</v>
-      </c>
-      <c r="H289" s="6">
-        <v>0</v>
-      </c>
-      <c r="I289" s="6">
-        <v>0</v>
-      </c>
-      <c r="J289" s="6">
-        <v>0</v>
-      </c>
-      <c r="K289" s="6">
-        <v>0</v>
-      </c>
-      <c r="L289" s="6">
-        <v>0</v>
-      </c>
-      <c r="M289" s="6">
+      <c r="E289" s="5">
+        <v>1</v>
+      </c>
+      <c r="F289" s="5">
+        <v>0</v>
+      </c>
+      <c r="G289" s="5">
+        <v>1</v>
+      </c>
+      <c r="H289" s="5">
+        <v>0</v>
+      </c>
+      <c r="I289" s="5">
+        <v>0</v>
+      </c>
+      <c r="J289" s="5">
+        <v>0</v>
+      </c>
+      <c r="K289" s="5">
+        <v>0</v>
+      </c>
+      <c r="L289" s="5">
+        <v>0</v>
+      </c>
+      <c r="M289" s="5">
         <v>182</v>
       </c>
-      <c r="N289" s="6"/>
-      <c r="O289" s="6">
+      <c r="N289" s="5"/>
+      <c r="O289" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P289" s="7"/>
+      <c r="P289" s="12"/>
     </row>
     <row r="290" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A290" s="6" t="s">
+      <c r="A290" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B290" s="6" t="s">
+      <c r="B290" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C290" s="6"/>
-      <c r="D290" s="6" t="s">
+      <c r="C290" s="5"/>
+      <c r="D290" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E290" s="6">
-        <v>1</v>
-      </c>
-      <c r="F290" s="6">
-        <v>0</v>
-      </c>
-      <c r="G290" s="6">
-        <v>1</v>
-      </c>
-      <c r="H290" s="6">
-        <v>0</v>
-      </c>
-      <c r="I290" s="6">
-        <v>0</v>
-      </c>
-      <c r="J290" s="6">
-        <v>0</v>
-      </c>
-      <c r="K290" s="6">
-        <v>0</v>
-      </c>
-      <c r="L290" s="6">
-        <v>0</v>
-      </c>
-      <c r="M290" s="6">
+      <c r="E290" s="5">
+        <v>1</v>
+      </c>
+      <c r="F290" s="5">
+        <v>0</v>
+      </c>
+      <c r="G290" s="5">
+        <v>1</v>
+      </c>
+      <c r="H290" s="5">
+        <v>0</v>
+      </c>
+      <c r="I290" s="5">
+        <v>0</v>
+      </c>
+      <c r="J290" s="5">
+        <v>0</v>
+      </c>
+      <c r="K290" s="5">
+        <v>0</v>
+      </c>
+      <c r="L290" s="5">
+        <v>0</v>
+      </c>
+      <c r="M290" s="5">
         <v>16</v>
       </c>
-      <c r="N290" s="6">
+      <c r="N290" s="5">
         <v>30000</v>
       </c>
-      <c r="O290" s="6">
+      <c r="O290" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P290" s="7"/>
+      <c r="P290" s="12"/>
     </row>
     <row r="291" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A291" s="6" t="s">
+      <c r="A291" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B291" s="6" t="s">
+      <c r="B291" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C291" s="6"/>
-      <c r="D291" s="6" t="s">
+      <c r="C291" s="5"/>
+      <c r="D291" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E291" s="6">
-        <v>1</v>
-      </c>
-      <c r="F291" s="6">
-        <v>1</v>
-      </c>
-      <c r="G291" s="6">
-        <v>0</v>
-      </c>
-      <c r="H291" s="6">
-        <v>0</v>
-      </c>
-      <c r="I291" s="6">
-        <v>1</v>
-      </c>
-      <c r="J291" s="6">
-        <v>0</v>
-      </c>
-      <c r="K291" s="6">
-        <v>1</v>
-      </c>
-      <c r="L291" s="6">
+      <c r="E291" s="5">
+        <v>1</v>
+      </c>
+      <c r="F291" s="5">
+        <v>1</v>
+      </c>
+      <c r="G291" s="5">
+        <v>0</v>
+      </c>
+      <c r="H291" s="5">
+        <v>0</v>
+      </c>
+      <c r="I291" s="5">
+        <v>1</v>
+      </c>
+      <c r="J291" s="5">
+        <v>0</v>
+      </c>
+      <c r="K291" s="5">
+        <v>1</v>
+      </c>
+      <c r="L291" s="5">
         <v>9</v>
       </c>
-      <c r="M291" s="6">
+      <c r="M291" s="5">
         <v>189</v>
       </c>
-      <c r="N291" s="6">
+      <c r="N291" s="5">
         <v>10996</v>
       </c>
-      <c r="O291" s="6">
+      <c r="O291" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P291" s="7"/>
+      <c r="P291" s="12"/>
     </row>
     <row r="292" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A292" s="6" t="s">
+      <c r="A292" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B292" s="6" t="s">
+      <c r="B292" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C292" s="6"/>
-      <c r="D292" s="6" t="s">
+      <c r="C292" s="5"/>
+      <c r="D292" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E292" s="6">
-        <v>1</v>
-      </c>
-      <c r="F292" s="6">
-        <v>1</v>
-      </c>
-      <c r="G292" s="6">
-        <v>0</v>
-      </c>
-      <c r="H292" s="6">
-        <v>1</v>
-      </c>
-      <c r="I292" s="6">
-        <v>0</v>
-      </c>
-      <c r="J292" s="6">
-        <v>0</v>
-      </c>
-      <c r="K292" s="6">
-        <v>1</v>
-      </c>
-      <c r="L292" s="6">
+      <c r="E292" s="5">
+        <v>1</v>
+      </c>
+      <c r="F292" s="5">
+        <v>1</v>
+      </c>
+      <c r="G292" s="5">
+        <v>0</v>
+      </c>
+      <c r="H292" s="5">
+        <v>1</v>
+      </c>
+      <c r="I292" s="5">
+        <v>0</v>
+      </c>
+      <c r="J292" s="5">
+        <v>0</v>
+      </c>
+      <c r="K292" s="5">
+        <v>1</v>
+      </c>
+      <c r="L292" s="5">
         <v>8</v>
       </c>
-      <c r="M292" s="6">
+      <c r="M292" s="5">
         <v>184</v>
       </c>
-      <c r="N292" s="6">
+      <c r="N292" s="5">
         <v>10475</v>
       </c>
-      <c r="O292" s="6">
+      <c r="O292" s="5">
         <f t="shared" si="6"/>
         <v>10475</v>
       </c>
-      <c r="P292" s="7"/>
+      <c r="P292" s="12"/>
     </row>
     <row r="293" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A293" s="6" t="s">
+      <c r="A293" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B293" s="6" t="s">
+      <c r="B293" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C293" s="6"/>
-      <c r="D293" s="6" t="s">
+      <c r="C293" s="5"/>
+      <c r="D293" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E293" s="6">
-        <v>1</v>
-      </c>
-      <c r="F293" s="6">
-        <v>1</v>
-      </c>
-      <c r="G293" s="6">
-        <v>0</v>
-      </c>
-      <c r="H293" s="6">
-        <v>1</v>
-      </c>
-      <c r="I293" s="6">
-        <v>0</v>
-      </c>
-      <c r="J293" s="6">
-        <v>0</v>
-      </c>
-      <c r="K293" s="6">
-        <v>1</v>
-      </c>
-      <c r="L293" s="6">
+      <c r="E293" s="5">
+        <v>1</v>
+      </c>
+      <c r="F293" s="5">
+        <v>1</v>
+      </c>
+      <c r="G293" s="5">
+        <v>0</v>
+      </c>
+      <c r="H293" s="5">
+        <v>1</v>
+      </c>
+      <c r="I293" s="5">
+        <v>0</v>
+      </c>
+      <c r="J293" s="5">
+        <v>0</v>
+      </c>
+      <c r="K293" s="5">
+        <v>1</v>
+      </c>
+      <c r="L293" s="5">
         <v>6</v>
       </c>
-      <c r="M293" s="6">
+      <c r="M293" s="5">
         <v>341</v>
       </c>
-      <c r="N293" s="6">
+      <c r="N293" s="5">
         <v>13190</v>
       </c>
-      <c r="O293" s="6">
+      <c r="O293" s="5">
         <f t="shared" si="6"/>
         <v>13190</v>
       </c>
-      <c r="P293" s="7"/>
+      <c r="P293" s="12"/>
     </row>
     <row r="294" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A294" s="6" t="s">
+      <c r="A294" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B294" s="6" t="s">
+      <c r="B294" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C294" s="6"/>
-      <c r="D294" s="6" t="s">
+      <c r="C294" s="5"/>
+      <c r="D294" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E294" s="6">
-        <v>1</v>
-      </c>
-      <c r="F294" s="6">
-        <v>1</v>
-      </c>
-      <c r="G294" s="6">
-        <v>0</v>
-      </c>
-      <c r="H294" s="6">
-        <v>1</v>
-      </c>
-      <c r="I294" s="6">
-        <v>0</v>
-      </c>
-      <c r="J294" s="6">
-        <v>0</v>
-      </c>
-      <c r="K294" s="6">
-        <v>1</v>
-      </c>
-      <c r="L294" s="6">
+      <c r="E294" s="5">
+        <v>1</v>
+      </c>
+      <c r="F294" s="5">
+        <v>1</v>
+      </c>
+      <c r="G294" s="5">
+        <v>0</v>
+      </c>
+      <c r="H294" s="5">
+        <v>1</v>
+      </c>
+      <c r="I294" s="5">
+        <v>0</v>
+      </c>
+      <c r="J294" s="5">
+        <v>0</v>
+      </c>
+      <c r="K294" s="5">
+        <v>1</v>
+      </c>
+      <c r="L294" s="5">
         <v>9</v>
       </c>
-      <c r="M294" s="6">
+      <c r="M294" s="5">
         <v>163</v>
       </c>
-      <c r="N294" s="6">
+      <c r="N294" s="5">
         <v>10794</v>
       </c>
-      <c r="O294" s="6">
+      <c r="O294" s="5">
         <f t="shared" si="6"/>
         <v>10794</v>
       </c>
-      <c r="P294" s="7"/>
+      <c r="P294" s="12"/>
     </row>
     <row r="295" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A295" s="6" t="s">
+      <c r="A295" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B295" s="6" t="s">
+      <c r="B295" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C295" s="6"/>
-      <c r="D295" s="6" t="s">
+      <c r="C295" s="5"/>
+      <c r="D295" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E295" s="6">
-        <v>1</v>
-      </c>
-      <c r="F295" s="6">
-        <v>1</v>
-      </c>
-      <c r="G295" s="6">
-        <v>0</v>
-      </c>
-      <c r="H295" s="6">
-        <v>1</v>
-      </c>
-      <c r="I295" s="6">
-        <v>0</v>
-      </c>
-      <c r="J295" s="6">
-        <v>0</v>
-      </c>
-      <c r="K295" s="6">
-        <v>1</v>
-      </c>
-      <c r="L295" s="6">
+      <c r="E295" s="5">
+        <v>1</v>
+      </c>
+      <c r="F295" s="5">
+        <v>1</v>
+      </c>
+      <c r="G295" s="5">
+        <v>0</v>
+      </c>
+      <c r="H295" s="5">
+        <v>1</v>
+      </c>
+      <c r="I295" s="5">
+        <v>0</v>
+      </c>
+      <c r="J295" s="5">
+        <v>0</v>
+      </c>
+      <c r="K295" s="5">
+        <v>1</v>
+      </c>
+      <c r="L295" s="5">
         <v>8</v>
       </c>
-      <c r="M295" s="6">
+      <c r="M295" s="5">
         <v>159</v>
       </c>
-      <c r="N295" s="6">
+      <c r="N295" s="5">
         <v>26999</v>
       </c>
-      <c r="O295" s="6">
+      <c r="O295" s="5">
         <f t="shared" si="6"/>
         <v>26999</v>
       </c>
-      <c r="P295" s="7"/>
+      <c r="P295" s="12"/>
     </row>
     <row r="296" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A296" s="6" t="s">
+      <c r="A296" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B296" s="6" t="s">
+      <c r="B296" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C296" s="6"/>
-      <c r="D296" s="6" t="s">
+      <c r="C296" s="5"/>
+      <c r="D296" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E296" s="6">
-        <v>1</v>
-      </c>
-      <c r="F296" s="6">
-        <v>1</v>
-      </c>
-      <c r="G296" s="6">
-        <v>0</v>
-      </c>
-      <c r="H296" s="6">
-        <v>1</v>
-      </c>
-      <c r="I296" s="6">
-        <v>0</v>
-      </c>
-      <c r="J296" s="6">
-        <v>0</v>
-      </c>
-      <c r="K296" s="6">
-        <v>1</v>
-      </c>
-      <c r="L296" s="6">
+      <c r="E296" s="5">
+        <v>1</v>
+      </c>
+      <c r="F296" s="5">
+        <v>1</v>
+      </c>
+      <c r="G296" s="5">
+        <v>0</v>
+      </c>
+      <c r="H296" s="5">
+        <v>1</v>
+      </c>
+      <c r="I296" s="5">
+        <v>0</v>
+      </c>
+      <c r="J296" s="5">
+        <v>0</v>
+      </c>
+      <c r="K296" s="5">
+        <v>1</v>
+      </c>
+      <c r="L296" s="5">
         <v>8</v>
       </c>
-      <c r="M296" s="6"/>
-      <c r="N296" s="6">
+      <c r="M296" s="5"/>
+      <c r="N296" s="5">
         <v>12499</v>
       </c>
-      <c r="O296" s="6">
+      <c r="O296" s="5">
         <f t="shared" si="6"/>
         <v>12499</v>
       </c>
-      <c r="P296" s="7"/>
+      <c r="P296" s="12"/>
     </row>
     <row r="297" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A297" s="6" t="s">
+      <c r="A297" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B297" s="6" t="s">
+      <c r="B297" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C297" s="6"/>
-      <c r="D297" s="6" t="s">
+      <c r="C297" s="5"/>
+      <c r="D297" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E297" s="6">
-        <v>1</v>
-      </c>
-      <c r="F297" s="6">
-        <v>1</v>
-      </c>
-      <c r="G297" s="6">
-        <v>0</v>
-      </c>
-      <c r="H297" s="6">
-        <v>1</v>
-      </c>
-      <c r="I297" s="6">
-        <v>0</v>
-      </c>
-      <c r="J297" s="6">
-        <v>0</v>
-      </c>
-      <c r="K297" s="6">
-        <v>1</v>
-      </c>
-      <c r="L297" s="6">
+      <c r="E297" s="5">
+        <v>1</v>
+      </c>
+      <c r="F297" s="5">
+        <v>1</v>
+      </c>
+      <c r="G297" s="5">
+        <v>0</v>
+      </c>
+      <c r="H297" s="5">
+        <v>1</v>
+      </c>
+      <c r="I297" s="5">
+        <v>0</v>
+      </c>
+      <c r="J297" s="5">
+        <v>0</v>
+      </c>
+      <c r="K297" s="5">
+        <v>1</v>
+      </c>
+      <c r="L297" s="5">
         <v>8</v>
       </c>
-      <c r="M297" s="6">
+      <c r="M297" s="5">
         <v>372</v>
       </c>
-      <c r="N297" s="6">
+      <c r="N297" s="5">
         <v>7145</v>
       </c>
-      <c r="O297" s="6">
+      <c r="O297" s="5">
         <f t="shared" si="6"/>
         <v>7145</v>
       </c>
-      <c r="P297" s="7"/>
+      <c r="P297" s="12"/>
     </row>
     <row r="298" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A298" s="6" t="s">
+      <c r="A298" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B298" s="6" t="s">
+      <c r="B298" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C298" s="6"/>
-      <c r="D298" s="6" t="s">
+      <c r="C298" s="5"/>
+      <c r="D298" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E298" s="6">
-        <v>1</v>
-      </c>
-      <c r="F298" s="6">
-        <v>1</v>
-      </c>
-      <c r="G298" s="6">
-        <v>0</v>
-      </c>
-      <c r="H298" s="6">
-        <v>1</v>
-      </c>
-      <c r="I298" s="6">
-        <v>0</v>
-      </c>
-      <c r="J298" s="6">
-        <v>0</v>
-      </c>
-      <c r="K298" s="6">
-        <v>1</v>
-      </c>
-      <c r="L298" s="6">
+      <c r="E298" s="5">
+        <v>1</v>
+      </c>
+      <c r="F298" s="5">
+        <v>1</v>
+      </c>
+      <c r="G298" s="5">
+        <v>0</v>
+      </c>
+      <c r="H298" s="5">
+        <v>1</v>
+      </c>
+      <c r="I298" s="5">
+        <v>0</v>
+      </c>
+      <c r="J298" s="5">
+        <v>0</v>
+      </c>
+      <c r="K298" s="5">
+        <v>1</v>
+      </c>
+      <c r="L298" s="5">
         <v>8</v>
       </c>
-      <c r="M298" s="6">
+      <c r="M298" s="5">
         <v>373</v>
       </c>
-      <c r="N298" s="6">
+      <c r="N298" s="5">
         <v>14065</v>
       </c>
-      <c r="O298" s="6">
+      <c r="O298" s="5">
         <f t="shared" si="6"/>
         <v>14065</v>
       </c>
-      <c r="P298" s="7"/>
+      <c r="P298" s="12"/>
     </row>
     <row r="299" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A299" s="6" t="s">
+      <c r="A299" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B299" s="6" t="s">
+      <c r="B299" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C299" s="6"/>
-      <c r="D299" s="6" t="s">
+      <c r="C299" s="5"/>
+      <c r="D299" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E299" s="6">
-        <v>1</v>
-      </c>
-      <c r="F299" s="6">
-        <v>1</v>
-      </c>
-      <c r="G299" s="6">
-        <v>0</v>
-      </c>
-      <c r="H299" s="6">
-        <v>1</v>
-      </c>
-      <c r="I299" s="6">
-        <v>0</v>
-      </c>
-      <c r="J299" s="6">
-        <v>0</v>
-      </c>
-      <c r="K299" s="6">
-        <v>1</v>
-      </c>
-      <c r="L299" s="6">
+      <c r="E299" s="5">
+        <v>1</v>
+      </c>
+      <c r="F299" s="5">
+        <v>1</v>
+      </c>
+      <c r="G299" s="5">
+        <v>0</v>
+      </c>
+      <c r="H299" s="5">
+        <v>1</v>
+      </c>
+      <c r="I299" s="5">
+        <v>0</v>
+      </c>
+      <c r="J299" s="5">
+        <v>0</v>
+      </c>
+      <c r="K299" s="5">
+        <v>1</v>
+      </c>
+      <c r="L299" s="5">
         <v>8</v>
       </c>
-      <c r="M299" s="6">
+      <c r="M299" s="5">
         <v>161</v>
       </c>
-      <c r="N299" s="6">
+      <c r="N299" s="5">
         <v>17100</v>
       </c>
-      <c r="O299" s="6">
+      <c r="O299" s="5">
         <f t="shared" si="6"/>
         <v>17100</v>
       </c>
-      <c r="P299" s="7"/>
+      <c r="P299" s="12"/>
     </row>
     <row r="300" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A300" s="6" t="s">
+      <c r="A300" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B300" s="6" t="s">
+      <c r="B300" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C300" s="6"/>
-      <c r="D300" s="6" t="s">
+      <c r="C300" s="5"/>
+      <c r="D300" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E300" s="6">
-        <v>1</v>
-      </c>
-      <c r="F300" s="6">
-        <v>1</v>
-      </c>
-      <c r="G300" s="6">
-        <v>0</v>
-      </c>
-      <c r="H300" s="6">
-        <v>1</v>
-      </c>
-      <c r="I300" s="6">
-        <v>0</v>
-      </c>
-      <c r="J300" s="6">
-        <v>0</v>
-      </c>
-      <c r="K300" s="6">
-        <v>1</v>
-      </c>
-      <c r="L300" s="6">
+      <c r="E300" s="5">
+        <v>1</v>
+      </c>
+      <c r="F300" s="5">
+        <v>1</v>
+      </c>
+      <c r="G300" s="5">
+        <v>0</v>
+      </c>
+      <c r="H300" s="5">
+        <v>1</v>
+      </c>
+      <c r="I300" s="5">
+        <v>0</v>
+      </c>
+      <c r="J300" s="5">
+        <v>0</v>
+      </c>
+      <c r="K300" s="5">
+        <v>1</v>
+      </c>
+      <c r="L300" s="5">
         <v>8</v>
       </c>
-      <c r="M300" s="6">
+      <c r="M300" s="5">
         <v>375</v>
       </c>
-      <c r="N300" s="6">
+      <c r="N300" s="5">
         <v>8416</v>
       </c>
-      <c r="O300" s="6">
+      <c r="O300" s="5">
         <f t="shared" si="6"/>
         <v>8416</v>
       </c>
-      <c r="P300" s="7"/>
+      <c r="P300" s="12"/>
     </row>
     <row r="301" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A301" s="6" t="s">
+      <c r="A301" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B301" s="6" t="s">
+      <c r="B301" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C301" s="6"/>
-      <c r="D301" s="6" t="s">
+      <c r="C301" s="5"/>
+      <c r="D301" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E301" s="6">
-        <v>1</v>
-      </c>
-      <c r="F301" s="6">
-        <v>1</v>
-      </c>
-      <c r="G301" s="6">
-        <v>0</v>
-      </c>
-      <c r="H301" s="6">
-        <v>1</v>
-      </c>
-      <c r="I301" s="6">
-        <v>0</v>
-      </c>
-      <c r="J301" s="6">
-        <v>0</v>
-      </c>
-      <c r="K301" s="6">
-        <v>1</v>
-      </c>
-      <c r="L301" s="6">
+      <c r="E301" s="5">
+        <v>1</v>
+      </c>
+      <c r="F301" s="5">
+        <v>1</v>
+      </c>
+      <c r="G301" s="5">
+        <v>0</v>
+      </c>
+      <c r="H301" s="5">
+        <v>1</v>
+      </c>
+      <c r="I301" s="5">
+        <v>0</v>
+      </c>
+      <c r="J301" s="5">
+        <v>0</v>
+      </c>
+      <c r="K301" s="5">
+        <v>1</v>
+      </c>
+      <c r="L301" s="5">
         <v>8</v>
       </c>
-      <c r="M301" s="6">
+      <c r="M301" s="5">
         <v>510</v>
       </c>
-      <c r="N301" s="6">
+      <c r="N301" s="5">
         <v>9126</v>
       </c>
-      <c r="O301" s="6">
+      <c r="O301" s="5">
         <f t="shared" si="6"/>
         <v>9126</v>
       </c>
-      <c r="P301" s="7"/>
+      <c r="P301" s="12"/>
     </row>
     <row r="302" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A302" s="6" t="s">
+      <c r="A302" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B302" s="6" t="s">
+      <c r="B302" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C302" s="6"/>
-      <c r="D302" s="6" t="s">
+      <c r="C302" s="5"/>
+      <c r="D302" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E302" s="6">
-        <v>1</v>
-      </c>
-      <c r="F302" s="6">
-        <v>1</v>
-      </c>
-      <c r="G302" s="6">
-        <v>0</v>
-      </c>
-      <c r="H302" s="6">
-        <v>1</v>
-      </c>
-      <c r="I302" s="6">
-        <v>0</v>
-      </c>
-      <c r="J302" s="6">
-        <v>0</v>
-      </c>
-      <c r="K302" s="6">
-        <v>1</v>
-      </c>
-      <c r="L302" s="6">
+      <c r="E302" s="5">
+        <v>1</v>
+      </c>
+      <c r="F302" s="5">
+        <v>1</v>
+      </c>
+      <c r="G302" s="5">
+        <v>0</v>
+      </c>
+      <c r="H302" s="5">
+        <v>1</v>
+      </c>
+      <c r="I302" s="5">
+        <v>0</v>
+      </c>
+      <c r="J302" s="5">
+        <v>0</v>
+      </c>
+      <c r="K302" s="5">
+        <v>1</v>
+      </c>
+      <c r="L302" s="5">
         <v>8</v>
       </c>
-      <c r="M302" s="6">
+      <c r="M302" s="5">
         <v>269</v>
       </c>
-      <c r="N302" s="6">
+      <c r="N302" s="5">
         <v>16510</v>
       </c>
-      <c r="O302" s="6">
+      <c r="O302" s="5">
         <f t="shared" si="6"/>
         <v>16510</v>
       </c>
-      <c r="P302" s="7"/>
+      <c r="P302" s="12"/>
     </row>
     <row r="303" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A303" s="6" t="s">
+      <c r="A303" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B303" s="6" t="s">
+      <c r="B303" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C303" s="6"/>
-      <c r="D303" s="6" t="s">
+      <c r="C303" s="5"/>
+      <c r="D303" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E303" s="6">
-        <v>1</v>
-      </c>
-      <c r="F303" s="6">
-        <v>1</v>
-      </c>
-      <c r="G303" s="6">
-        <v>0</v>
-      </c>
-      <c r="H303" s="6">
-        <v>1</v>
-      </c>
-      <c r="I303" s="6">
-        <v>0</v>
-      </c>
-      <c r="J303" s="6">
-        <v>0</v>
-      </c>
-      <c r="K303" s="6">
-        <v>1</v>
-      </c>
-      <c r="L303" s="6">
+      <c r="E303" s="5">
+        <v>1</v>
+      </c>
+      <c r="F303" s="5">
+        <v>1</v>
+      </c>
+      <c r="G303" s="5">
+        <v>0</v>
+      </c>
+      <c r="H303" s="5">
+        <v>1</v>
+      </c>
+      <c r="I303" s="5">
+        <v>0</v>
+      </c>
+      <c r="J303" s="5">
+        <v>0</v>
+      </c>
+      <c r="K303" s="5">
+        <v>1</v>
+      </c>
+      <c r="L303" s="5">
         <v>8</v>
       </c>
-      <c r="M303" s="6">
+      <c r="M303" s="5">
         <v>371</v>
       </c>
-      <c r="N303" s="6">
+      <c r="N303" s="5">
         <v>13381</v>
       </c>
-      <c r="O303" s="6">
+      <c r="O303" s="5">
         <f t="shared" si="6"/>
         <v>13381</v>
       </c>
-      <c r="P303" s="7"/>
+      <c r="P303" s="12"/>
     </row>
     <row r="304" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A304" s="6" t="s">
+      <c r="A304" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B304" s="6" t="s">
+      <c r="B304" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C304" s="6"/>
-      <c r="D304" s="6" t="s">
+      <c r="C304" s="5"/>
+      <c r="D304" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E304" s="6">
-        <v>1</v>
-      </c>
-      <c r="F304" s="6">
-        <v>1</v>
-      </c>
-      <c r="G304" s="6">
-        <v>0</v>
-      </c>
-      <c r="H304" s="6">
-        <v>1</v>
-      </c>
-      <c r="I304" s="6">
-        <v>0</v>
-      </c>
-      <c r="J304" s="6">
-        <v>0</v>
-      </c>
-      <c r="K304" s="6">
-        <v>1</v>
-      </c>
-      <c r="L304" s="6">
+      <c r="E304" s="5">
+        <v>1</v>
+      </c>
+      <c r="F304" s="5">
+        <v>1</v>
+      </c>
+      <c r="G304" s="5">
+        <v>0</v>
+      </c>
+      <c r="H304" s="5">
+        <v>1</v>
+      </c>
+      <c r="I304" s="5">
+        <v>0</v>
+      </c>
+      <c r="J304" s="5">
+        <v>0</v>
+      </c>
+      <c r="K304" s="5">
+        <v>1</v>
+      </c>
+      <c r="L304" s="5">
         <v>8</v>
       </c>
-      <c r="M304" s="6">
+      <c r="M304" s="5">
         <v>384</v>
       </c>
-      <c r="N304" s="6">
+      <c r="N304" s="5">
         <v>8093</v>
       </c>
-      <c r="O304" s="6">
+      <c r="O304" s="5">
         <f t="shared" si="6"/>
         <v>8093</v>
       </c>
-      <c r="P304" s="7"/>
+      <c r="P304" s="12"/>
     </row>
     <row r="305" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A305" s="6" t="s">
+      <c r="A305" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B305" s="6" t="s">
+      <c r="B305" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C305" s="6"/>
-      <c r="D305" s="6" t="s">
+      <c r="C305" s="5"/>
+      <c r="D305" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E305" s="6">
-        <v>1</v>
-      </c>
-      <c r="F305" s="6">
-        <v>1</v>
-      </c>
-      <c r="G305" s="6">
-        <v>0</v>
-      </c>
-      <c r="H305" s="6">
-        <v>1</v>
-      </c>
-      <c r="I305" s="6">
-        <v>0</v>
-      </c>
-      <c r="J305" s="6">
-        <v>0</v>
-      </c>
-      <c r="K305" s="6">
-        <v>1</v>
-      </c>
-      <c r="L305" s="6">
+      <c r="E305" s="5">
+        <v>1</v>
+      </c>
+      <c r="F305" s="5">
+        <v>1</v>
+      </c>
+      <c r="G305" s="5">
+        <v>0</v>
+      </c>
+      <c r="H305" s="5">
+        <v>1</v>
+      </c>
+      <c r="I305" s="5">
+        <v>0</v>
+      </c>
+      <c r="J305" s="5">
+        <v>0</v>
+      </c>
+      <c r="K305" s="5">
+        <v>1</v>
+      </c>
+      <c r="L305" s="5">
         <v>8</v>
       </c>
-      <c r="M305" s="6">
+      <c r="M305" s="5">
         <v>382</v>
       </c>
-      <c r="N305" s="6">
+      <c r="N305" s="5">
         <v>19271</v>
       </c>
-      <c r="O305" s="6">
+      <c r="O305" s="5">
         <f t="shared" si="6"/>
         <v>19271</v>
       </c>
-      <c r="P305" s="7"/>
+      <c r="P305" s="12"/>
     </row>
     <row r="306" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
@@ -16610,7 +16613,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P306" s="3">
+      <c r="P306" s="11">
         <f>SUM(O306:O324)/SUM(H306:H324)</f>
         <v>14627.375</v>
       </c>
@@ -16659,7 +16662,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P307" s="3"/>
+      <c r="P307" s="11"/>
     </row>
     <row r="308" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
@@ -16705,7 +16708,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P308" s="3"/>
+      <c r="P308" s="11"/>
     </row>
     <row r="309" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
@@ -16748,7 +16751,7 @@
         <f t="shared" si="6"/>
         <v>5656</v>
       </c>
-      <c r="P309" s="3"/>
+      <c r="P309" s="11"/>
     </row>
     <row r="310" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
@@ -16794,7 +16797,7 @@
         <f t="shared" si="6"/>
         <v>19889</v>
       </c>
-      <c r="P310" s="3"/>
+      <c r="P310" s="11"/>
     </row>
     <row r="311" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
@@ -16840,7 +16843,7 @@
         <f t="shared" si="6"/>
         <v>9405</v>
       </c>
-      <c r="P311" s="3"/>
+      <c r="P311" s="11"/>
     </row>
     <row r="312" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
@@ -16886,7 +16889,7 @@
         <f t="shared" si="6"/>
         <v>13280</v>
       </c>
-      <c r="P312" s="3"/>
+      <c r="P312" s="11"/>
     </row>
     <row r="313" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
@@ -16932,7 +16935,7 @@
         <f t="shared" si="6"/>
         <v>10057</v>
       </c>
-      <c r="P313" s="3"/>
+      <c r="P313" s="11"/>
     </row>
     <row r="314" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
@@ -16978,7 +16981,7 @@
         <f t="shared" si="6"/>
         <v>10682</v>
       </c>
-      <c r="P314" s="3"/>
+      <c r="P314" s="11"/>
     </row>
     <row r="315" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="s">
@@ -17024,7 +17027,7 @@
         <f t="shared" si="6"/>
         <v>9926</v>
       </c>
-      <c r="P315" s="3"/>
+      <c r="P315" s="11"/>
     </row>
     <row r="316" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
@@ -17070,7 +17073,7 @@
         <f t="shared" si="6"/>
         <v>21280</v>
       </c>
-      <c r="P316" s="3"/>
+      <c r="P316" s="11"/>
     </row>
     <row r="317" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
@@ -17116,7 +17119,7 @@
         <f t="shared" si="6"/>
         <v>11943</v>
       </c>
-      <c r="P317" s="3"/>
+      <c r="P317" s="11"/>
     </row>
     <row r="318" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="s">
@@ -17162,7 +17165,7 @@
         <f t="shared" si="6"/>
         <v>12485</v>
       </c>
-      <c r="P318" s="3"/>
+      <c r="P318" s="11"/>
     </row>
     <row r="319" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
@@ -17208,7 +17211,7 @@
         <f t="shared" si="6"/>
         <v>14810</v>
       </c>
-      <c r="P319" s="3"/>
+      <c r="P319" s="11"/>
     </row>
     <row r="320" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
@@ -17251,7 +17254,7 @@
         <f t="shared" si="6"/>
         <v>18283</v>
       </c>
-      <c r="P320" s="3"/>
+      <c r="P320" s="11"/>
     </row>
     <row r="321" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
@@ -17297,7 +17300,7 @@
         <f t="shared" si="6"/>
         <v>16236</v>
       </c>
-      <c r="P321" s="3"/>
+      <c r="P321" s="11"/>
     </row>
     <row r="322" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
@@ -17343,7 +17346,7 @@
         <f t="shared" si="6"/>
         <v>27450</v>
       </c>
-      <c r="P322" s="3"/>
+      <c r="P322" s="11"/>
     </row>
     <row r="323" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
@@ -17389,7 +17392,7 @@
         <f t="shared" ref="O323:O386" si="7">IF(H323=0,0,N323)</f>
         <v>10398</v>
       </c>
-      <c r="P323" s="3"/>
+      <c r="P323" s="11"/>
     </row>
     <row r="324" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
@@ -17432,7 +17435,7 @@
         <f t="shared" si="7"/>
         <v>22258</v>
       </c>
-      <c r="P324" s="3"/>
+      <c r="P324" s="11"/>
     </row>
     <row r="325" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
@@ -17478,7 +17481,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="P325" s="3">
+      <c r="P325" s="11">
         <f>SUM(O325:O343)/SUM(H325:H343)</f>
         <v>10816.333333333334</v>
       </c>
@@ -17527,7 +17530,7 @@
         <f t="shared" si="7"/>
         <v>6185</v>
       </c>
-      <c r="P326" s="3"/>
+      <c r="P326" s="11"/>
     </row>
     <row r="327" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
@@ -17573,7 +17576,7 @@
         <f t="shared" si="7"/>
         <v>10906</v>
       </c>
-      <c r="P327" s="3"/>
+      <c r="P327" s="11"/>
     </row>
     <row r="328" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
@@ -17619,7 +17622,7 @@
         <f t="shared" si="7"/>
         <v>8352</v>
       </c>
-      <c r="P328" s="3"/>
+      <c r="P328" s="11"/>
     </row>
     <row r="329" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="s">
@@ -17665,7 +17668,7 @@
         <f t="shared" si="7"/>
         <v>10980</v>
       </c>
-      <c r="P329" s="3"/>
+      <c r="P329" s="11"/>
     </row>
     <row r="330" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
@@ -17708,7 +17711,7 @@
         <f t="shared" si="7"/>
         <v>7132</v>
       </c>
-      <c r="P330" s="3"/>
+      <c r="P330" s="11"/>
     </row>
     <row r="331" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
@@ -17754,7 +17757,7 @@
         <f t="shared" si="7"/>
         <v>10197</v>
       </c>
-      <c r="P331" s="3"/>
+      <c r="P331" s="11"/>
     </row>
     <row r="332" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
@@ -17800,7 +17803,7 @@
         <f t="shared" si="7"/>
         <v>10027</v>
       </c>
-      <c r="P332" s="3"/>
+      <c r="P332" s="11"/>
     </row>
     <row r="333" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
@@ -17846,7 +17849,7 @@
         <f t="shared" si="7"/>
         <v>11051</v>
       </c>
-      <c r="P333" s="3"/>
+      <c r="P333" s="11"/>
     </row>
     <row r="334" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
@@ -17889,7 +17892,7 @@
         <f t="shared" si="7"/>
         <v>9052</v>
       </c>
-      <c r="P334" s="3"/>
+      <c r="P334" s="11"/>
     </row>
     <row r="335" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
@@ -17935,7 +17938,7 @@
         <f t="shared" si="7"/>
         <v>23329</v>
       </c>
-      <c r="P335" s="3"/>
+      <c r="P335" s="11"/>
     </row>
     <row r="336" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
@@ -17978,7 +17981,7 @@
         <f t="shared" si="7"/>
         <v>8256</v>
       </c>
-      <c r="P336" s="3"/>
+      <c r="P336" s="11"/>
     </row>
     <row r="337" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="s">
@@ -18024,7 +18027,7 @@
         <f t="shared" si="7"/>
         <v>8719</v>
       </c>
-      <c r="P337" s="3"/>
+      <c r="P337" s="11"/>
     </row>
     <row r="338" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
@@ -18070,7 +18073,7 @@
         <f t="shared" si="7"/>
         <v>8350</v>
       </c>
-      <c r="P338" s="3"/>
+      <c r="P338" s="11"/>
     </row>
     <row r="339" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
@@ -18116,7 +18119,7 @@
         <f t="shared" si="7"/>
         <v>9654</v>
       </c>
-      <c r="P339" s="3"/>
+      <c r="P339" s="11"/>
     </row>
     <row r="340" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
@@ -18162,7 +18165,7 @@
         <f t="shared" si="7"/>
         <v>29431</v>
       </c>
-      <c r="P340" s="3"/>
+      <c r="P340" s="11"/>
     </row>
     <row r="341" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
@@ -18208,7 +18211,7 @@
         <f t="shared" si="7"/>
         <v>4579</v>
       </c>
-      <c r="P341" s="3"/>
+      <c r="P341" s="11"/>
     </row>
     <row r="342" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
@@ -18254,7 +18257,7 @@
         <f t="shared" si="7"/>
         <v>8385</v>
       </c>
-      <c r="P342" s="3"/>
+      <c r="P342" s="11"/>
     </row>
     <row r="343" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="s">
@@ -18300,7 +18303,7 @@
         <f t="shared" si="7"/>
         <v>10109</v>
       </c>
-      <c r="P343" s="3"/>
+      <c r="P343" s="11"/>
     </row>
     <row r="344" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A344" s="1" t="s">
@@ -18346,7 +18349,7 @@
         <f t="shared" si="7"/>
         <v>8406</v>
       </c>
-      <c r="P344" s="3">
+      <c r="P344" s="11">
         <f>SUM(O344:O362)/SUM(H344:H362)</f>
         <v>14048.631578947368</v>
       </c>
@@ -18395,7 +18398,7 @@
         <f t="shared" si="7"/>
         <v>17818</v>
       </c>
-      <c r="P345" s="3"/>
+      <c r="P345" s="11"/>
     </row>
     <row r="346" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="s">
@@ -18441,7 +18444,7 @@
         <f t="shared" si="7"/>
         <v>10218</v>
       </c>
-      <c r="P346" s="3"/>
+      <c r="P346" s="11"/>
     </row>
     <row r="347" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A347" s="1" t="s">
@@ -18487,7 +18490,7 @@
         <f t="shared" si="7"/>
         <v>13397</v>
       </c>
-      <c r="P347" s="3"/>
+      <c r="P347" s="11"/>
     </row>
     <row r="348" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
@@ -18533,7 +18536,7 @@
         <f t="shared" si="7"/>
         <v>14601</v>
       </c>
-      <c r="P348" s="3"/>
+      <c r="P348" s="11"/>
     </row>
     <row r="349" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
@@ -18579,7 +18582,7 @@
         <f t="shared" si="7"/>
         <v>27374</v>
       </c>
-      <c r="P349" s="3"/>
+      <c r="P349" s="11"/>
     </row>
     <row r="350" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
@@ -18625,7 +18628,7 @@
         <f t="shared" si="7"/>
         <v>10841</v>
       </c>
-      <c r="P350" s="3"/>
+      <c r="P350" s="11"/>
     </row>
     <row r="351" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
@@ -18671,7 +18674,7 @@
         <f t="shared" si="7"/>
         <v>13064</v>
       </c>
-      <c r="P351" s="3"/>
+      <c r="P351" s="11"/>
     </row>
     <row r="352" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
@@ -18717,7 +18720,7 @@
         <f t="shared" si="7"/>
         <v>15829</v>
       </c>
-      <c r="P352" s="3"/>
+      <c r="P352" s="11"/>
     </row>
     <row r="353" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="s">
@@ -18763,7 +18766,7 @@
         <f t="shared" si="7"/>
         <v>10197</v>
       </c>
-      <c r="P353" s="3"/>
+      <c r="P353" s="11"/>
     </row>
     <row r="354" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
@@ -18809,7 +18812,7 @@
         <f t="shared" si="7"/>
         <v>12833</v>
       </c>
-      <c r="P354" s="3"/>
+      <c r="P354" s="11"/>
     </row>
     <row r="355" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
@@ -18855,7 +18858,7 @@
         <f t="shared" si="7"/>
         <v>14379</v>
       </c>
-      <c r="P355" s="3"/>
+      <c r="P355" s="11"/>
     </row>
     <row r="356" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
@@ -18901,7 +18904,7 @@
         <f t="shared" si="7"/>
         <v>10841</v>
       </c>
-      <c r="P356" s="3"/>
+      <c r="P356" s="11"/>
     </row>
     <row r="357" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A357" s="1" t="s">
@@ -18947,7 +18950,7 @@
         <f t="shared" si="7"/>
         <v>27233</v>
       </c>
-      <c r="P357" s="3"/>
+      <c r="P357" s="11"/>
     </row>
     <row r="358" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
@@ -18993,7 +18996,7 @@
         <f t="shared" si="7"/>
         <v>11595</v>
       </c>
-      <c r="P358" s="3"/>
+      <c r="P358" s="11"/>
     </row>
     <row r="359" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
@@ -19039,7 +19042,7 @@
         <f t="shared" si="7"/>
         <v>14551</v>
       </c>
-      <c r="P359" s="3"/>
+      <c r="P359" s="11"/>
     </row>
     <row r="360" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
@@ -19085,7 +19088,7 @@
         <f t="shared" si="7"/>
         <v>9825</v>
       </c>
-      <c r="P360" s="3"/>
+      <c r="P360" s="11"/>
     </row>
     <row r="361" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A361" s="1" t="s">
@@ -19128,7 +19131,7 @@
         <f t="shared" si="7"/>
         <v>8161</v>
       </c>
-      <c r="P361" s="3"/>
+      <c r="P361" s="11"/>
     </row>
     <row r="362" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
@@ -19174,7 +19177,7 @@
         <f t="shared" si="7"/>
         <v>15761</v>
       </c>
-      <c r="P362" s="3"/>
+      <c r="P362" s="11"/>
     </row>
     <row r="363" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="s">
@@ -19217,7 +19220,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="P363" s="3">
+      <c r="P363" s="11">
         <f>SUM(O363:O381)/SUM(H363:H381)</f>
         <v>14267.411764705883</v>
       </c>
@@ -19266,7 +19269,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="P364" s="3"/>
+      <c r="P364" s="11"/>
     </row>
     <row r="365" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="s">
@@ -19312,7 +19315,7 @@
         <f t="shared" si="7"/>
         <v>11017</v>
       </c>
-      <c r="P365" s="3"/>
+      <c r="P365" s="11"/>
     </row>
     <row r="366" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
@@ -19358,7 +19361,7 @@
         <f t="shared" si="7"/>
         <v>14058</v>
       </c>
-      <c r="P366" s="3"/>
+      <c r="P366" s="11"/>
     </row>
     <row r="367" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A367" s="1" t="s">
@@ -19404,7 +19407,7 @@
         <f t="shared" si="7"/>
         <v>7080</v>
       </c>
-      <c r="P367" s="3"/>
+      <c r="P367" s="11"/>
     </row>
     <row r="368" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="s">
@@ -19450,7 +19453,7 @@
         <f t="shared" si="7"/>
         <v>12384</v>
       </c>
-      <c r="P368" s="3"/>
+      <c r="P368" s="11"/>
     </row>
     <row r="369" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A369" s="1" t="s">
@@ -19496,7 +19499,7 @@
         <f t="shared" si="7"/>
         <v>14309</v>
       </c>
-      <c r="P369" s="3"/>
+      <c r="P369" s="11"/>
     </row>
     <row r="370" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="s">
@@ -19542,7 +19545,7 @@
         <f t="shared" si="7"/>
         <v>13027</v>
       </c>
-      <c r="P370" s="3"/>
+      <c r="P370" s="11"/>
     </row>
     <row r="371" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A371" s="1" t="s">
@@ -19588,7 +19591,7 @@
         <f t="shared" si="7"/>
         <v>13996</v>
       </c>
-      <c r="P371" s="3"/>
+      <c r="P371" s="11"/>
     </row>
     <row r="372" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
@@ -19634,7 +19637,7 @@
         <f t="shared" si="7"/>
         <v>23210</v>
       </c>
-      <c r="P372" s="3"/>
+      <c r="P372" s="11"/>
     </row>
     <row r="373" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
@@ -19680,7 +19683,7 @@
         <f t="shared" si="7"/>
         <v>9490</v>
       </c>
-      <c r="P373" s="3"/>
+      <c r="P373" s="11"/>
     </row>
     <row r="374" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A374" s="1" t="s">
@@ -19726,7 +19729,7 @@
         <f t="shared" si="7"/>
         <v>11372</v>
       </c>
-      <c r="P374" s="3"/>
+      <c r="P374" s="11"/>
     </row>
     <row r="375" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A375" s="1" t="s">
@@ -19772,7 +19775,7 @@
         <f t="shared" si="7"/>
         <v>14894</v>
       </c>
-      <c r="P375" s="3"/>
+      <c r="P375" s="11"/>
     </row>
     <row r="376" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A376" s="1" t="s">
@@ -19818,7 +19821,7 @@
         <f t="shared" si="7"/>
         <v>26095</v>
       </c>
-      <c r="P376" s="3"/>
+      <c r="P376" s="11"/>
     </row>
     <row r="377" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A377" s="1" t="s">
@@ -19864,7 +19867,7 @@
         <f t="shared" si="7"/>
         <v>14095</v>
       </c>
-      <c r="P377" s="3"/>
+      <c r="P377" s="11"/>
     </row>
     <row r="378" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A378" s="1" t="s">
@@ -19910,7 +19913,7 @@
         <f t="shared" si="7"/>
         <v>16675</v>
       </c>
-      <c r="P378" s="3"/>
+      <c r="P378" s="11"/>
     </row>
     <row r="379" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A379" s="1" t="s">
@@ -19956,7 +19959,7 @@
         <f t="shared" si="7"/>
         <v>9256</v>
       </c>
-      <c r="P379" s="3"/>
+      <c r="P379" s="11"/>
     </row>
     <row r="380" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A380" s="1" t="s">
@@ -20002,7 +20005,7 @@
         <f t="shared" si="7"/>
         <v>13064</v>
       </c>
-      <c r="P380" s="3"/>
+      <c r="P380" s="11"/>
     </row>
     <row r="381" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A381" s="1" t="s">
@@ -20048,7 +20051,7 @@
         <f t="shared" si="7"/>
         <v>18524</v>
       </c>
-      <c r="P381" s="3"/>
+      <c r="P381" s="11"/>
     </row>
     <row r="382" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A382" s="1" t="s">
@@ -20097,7 +20100,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="P382" s="3">
+      <c r="P382" s="11">
         <f>SUM(O382:O400)/SUM(H382:H400)</f>
         <v>24050.722222222223</v>
       </c>
@@ -20149,7 +20152,7 @@
         <f t="shared" si="7"/>
         <v>19444</v>
       </c>
-      <c r="P383" s="3"/>
+      <c r="P383" s="11"/>
     </row>
     <row r="384" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A384" s="1" t="s">
@@ -20198,7 +20201,7 @@
         <f t="shared" si="7"/>
         <v>27260</v>
       </c>
-      <c r="P384" s="3"/>
+      <c r="P384" s="11"/>
     </row>
     <row r="385" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A385" s="1" t="s">
@@ -20247,7 +20250,7 @@
         <f t="shared" si="7"/>
         <v>20497</v>
       </c>
-      <c r="P385" s="3"/>
+      <c r="P385" s="11"/>
     </row>
     <row r="386" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A386" s="1" t="s">
@@ -20296,7 +20299,7 @@
         <f t="shared" si="7"/>
         <v>21184</v>
       </c>
-      <c r="P386" s="3"/>
+      <c r="P386" s="11"/>
     </row>
     <row r="387" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A387" s="1" t="s">
@@ -20345,7 +20348,7 @@
         <f t="shared" ref="O387:O400" si="8">IF(H387=0,0,N387)</f>
         <v>18473</v>
       </c>
-      <c r="P387" s="3"/>
+      <c r="P387" s="11"/>
     </row>
     <row r="388" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A388" s="1" t="s">
@@ -20394,7 +20397,7 @@
         <f t="shared" si="8"/>
         <v>42911</v>
       </c>
-      <c r="P388" s="3"/>
+      <c r="P388" s="11"/>
     </row>
     <row r="389" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A389" s="1" t="s">
@@ -20443,7 +20446,7 @@
         <f t="shared" si="8"/>
         <v>30255</v>
       </c>
-      <c r="P389" s="3"/>
+      <c r="P389" s="11"/>
     </row>
     <row r="390" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A390" s="1" t="s">
@@ -20492,7 +20495,7 @@
         <f t="shared" si="8"/>
         <v>14335</v>
       </c>
-      <c r="P390" s="3"/>
+      <c r="P390" s="11"/>
     </row>
     <row r="391" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A391" s="1" t="s">
@@ -20541,7 +20544,7 @@
         <f t="shared" si="8"/>
         <v>11976</v>
       </c>
-      <c r="P391" s="3"/>
+      <c r="P391" s="11"/>
     </row>
     <row r="392" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A392" s="1" t="s">
@@ -20590,7 +20593,7 @@
         <f t="shared" si="8"/>
         <v>24282</v>
       </c>
-      <c r="P392" s="3"/>
+      <c r="P392" s="11"/>
     </row>
     <row r="393" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A393" s="1" t="s">
@@ -20639,7 +20642,7 @@
         <f t="shared" si="8"/>
         <v>2617</v>
       </c>
-      <c r="P393" s="3"/>
+      <c r="P393" s="11"/>
     </row>
     <row r="394" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A394" s="1" t="s">
@@ -20688,7 +20691,7 @@
         <f t="shared" si="8"/>
         <v>15181</v>
       </c>
-      <c r="P394" s="3"/>
+      <c r="P394" s="11"/>
     </row>
     <row r="395" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A395" s="1" t="s">
@@ -20737,7 +20740,7 @@
         <f t="shared" si="8"/>
         <v>33041</v>
       </c>
-      <c r="P395" s="3"/>
+      <c r="P395" s="11"/>
     </row>
     <row r="396" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A396" s="1" t="s">
@@ -20786,7 +20789,7 @@
         <f t="shared" si="8"/>
         <v>48659</v>
       </c>
-      <c r="P396" s="3"/>
+      <c r="P396" s="11"/>
     </row>
     <row r="397" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A397" s="1" t="s">
@@ -20835,7 +20838,7 @@
         <f t="shared" si="8"/>
         <v>34130</v>
       </c>
-      <c r="P397" s="3"/>
+      <c r="P397" s="11"/>
     </row>
     <row r="398" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A398" s="1" t="s">
@@ -20884,7 +20887,7 @@
         <f t="shared" si="8"/>
         <v>19553</v>
       </c>
-      <c r="P398" s="3"/>
+      <c r="P398" s="11"/>
     </row>
     <row r="399" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A399" s="1" t="s">
@@ -20933,7 +20936,7 @@
         <f t="shared" si="8"/>
         <v>25513</v>
       </c>
-      <c r="P399" s="3"/>
+      <c r="P399" s="11"/>
     </row>
     <row r="400" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A400" s="1" t="s">
@@ -20982,7 +20985,7 @@
         <f t="shared" si="8"/>
         <v>23602</v>
       </c>
-      <c r="P400" s="3"/>
+      <c r="P400" s="11"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L400">
@@ -20990,6 +20993,18 @@
     <sortCondition ref="H2:H400"/>
   </sortState>
   <mergeCells count="21">
+    <mergeCell ref="P211:P229"/>
+    <mergeCell ref="P2:P20"/>
+    <mergeCell ref="P21:P39"/>
+    <mergeCell ref="P40:P58"/>
+    <mergeCell ref="P59:P77"/>
+    <mergeCell ref="P78:P96"/>
+    <mergeCell ref="P97:P115"/>
+    <mergeCell ref="P116:P134"/>
+    <mergeCell ref="P135:P153"/>
+    <mergeCell ref="P154:P172"/>
+    <mergeCell ref="P173:P191"/>
+    <mergeCell ref="P192:P210"/>
     <mergeCell ref="P344:P362"/>
     <mergeCell ref="P363:P381"/>
     <mergeCell ref="P382:P400"/>
@@ -20999,25 +21014,13 @@
     <mergeCell ref="P287:P305"/>
     <mergeCell ref="P306:P324"/>
     <mergeCell ref="P325:P343"/>
-    <mergeCell ref="P116:P134"/>
-    <mergeCell ref="P135:P153"/>
-    <mergeCell ref="P154:P172"/>
-    <mergeCell ref="P173:P191"/>
-    <mergeCell ref="P192:P210"/>
-    <mergeCell ref="P211:P229"/>
-    <mergeCell ref="P2:P20"/>
-    <mergeCell ref="P21:P39"/>
-    <mergeCell ref="P40:P58"/>
-    <mergeCell ref="P59:P77"/>
-    <mergeCell ref="P78:P96"/>
-    <mergeCell ref="P97:P115"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AQ37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -23257,236 +23260,236 @@
       </c>
     </row>
     <row r="21" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="8" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A22" s="11" t="str">
+      <c r="A22" s="9" t="str">
         <f>A2</f>
         <v>ArrayAverage</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22" s="10">
         <f>H2</f>
         <v>1</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="10">
         <f>I2</f>
         <v>6.9</v>
       </c>
     </row>
     <row r="23" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A23" s="11" t="str">
-        <f t="shared" ref="A23:A38" si="0">A3</f>
+      <c r="A23" s="9" t="str">
+        <f t="shared" ref="A23:A37" si="0">A3</f>
         <v>ContainsSubstring</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="10">
         <f t="shared" ref="B23:C37" si="1">H3</f>
         <v>14</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="10">
         <f t="shared" si="1"/>
         <v>24.9</v>
       </c>
     </row>
     <row r="24" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A24" s="11" t="str">
+      <c r="A24" s="9" t="str">
         <f t="shared" si="0"/>
         <v>CountVowels</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="10">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="10">
         <f t="shared" si="1"/>
         <v>13.1</v>
       </c>
     </row>
     <row r="25" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A25" s="11" t="str">
+      <c r="A25" s="9" t="str">
         <f t="shared" si="0"/>
         <v>DumbSort</v>
       </c>
-      <c r="B25" s="12">
+      <c r="B25" s="10">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="10">
         <f t="shared" si="1"/>
         <v>20.3</v>
       </c>
     </row>
     <row r="26" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A26" s="11" t="str">
+      <c r="A26" s="9" t="str">
         <f t="shared" si="0"/>
         <v>GreatestCommonDivisor</v>
       </c>
-      <c r="B26" s="12">
+      <c r="B26" s="10">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="10">
         <f t="shared" si="1"/>
         <v>11.9</v>
       </c>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A27" s="11" t="str">
+      <c r="A27" s="9" t="str">
         <f t="shared" si="0"/>
         <v>hIndex</v>
       </c>
-      <c r="B27" s="12">
+      <c r="B27" s="10">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="10">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A28" s="11" t="str">
+      <c r="A28" s="9" t="str">
         <f t="shared" si="0"/>
         <v>isHurricane</v>
       </c>
-      <c r="B28" s="12">
+      <c r="B28" s="10">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C28" s="10">
         <f t="shared" si="1"/>
         <v>11.9</v>
       </c>
     </row>
     <row r="29" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A29" s="11" t="str">
+      <c r="A29" s="9" t="str">
         <f t="shared" si="0"/>
         <v>isPalindrome</v>
       </c>
-      <c r="B29" s="12">
+      <c r="B29" s="10">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C29" s="10">
         <f t="shared" si="1"/>
         <v>12.3</v>
       </c>
     </row>
     <row r="30" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A30" s="11" t="str">
+      <c r="A30" s="9" t="str">
         <f t="shared" si="0"/>
         <v>lengthOfLastWord</v>
       </c>
-      <c r="B30" s="12">
+      <c r="B30" s="10">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="10">
         <f t="shared" si="1"/>
         <v>18.3</v>
       </c>
     </row>
     <row r="31" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A31" s="11" t="str">
+      <c r="A31" s="9" t="str">
         <f t="shared" si="0"/>
         <v>RecursiveBinaryToDecimal</v>
       </c>
-      <c r="B31" s="12">
+      <c r="B31" s="10">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="10">
         <f t="shared" si="1"/>
         <v>11.9</v>
       </c>
     </row>
     <row r="32" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A32" s="11" t="str">
+      <c r="A32" s="9" t="str">
         <f t="shared" si="0"/>
         <v>RecursiveCrossSum</v>
       </c>
-      <c r="B32" s="12">
+      <c r="B32" s="10">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="C32" s="12">
+      <c r="C32" s="10">
         <f t="shared" si="1"/>
         <v>6.2</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="11" t="str">
+      <c r="A33" s="9" t="str">
         <f t="shared" si="0"/>
         <v>RecursiveFactorial</v>
       </c>
-      <c r="B33" s="12">
+      <c r="B33" s="10">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C33" s="10">
         <f t="shared" si="1"/>
         <v>5.9</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="11" t="str">
+      <c r="A34" s="9" t="str">
         <f t="shared" si="0"/>
         <v>RecursiveFibonacciVariant</v>
       </c>
-      <c r="B34" s="12">
+      <c r="B34" s="10">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="10">
         <f t="shared" si="1"/>
         <v>7.2</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="11" t="str">
+      <c r="A35" s="9" t="str">
         <f t="shared" si="0"/>
         <v>RecursivePower</v>
       </c>
-      <c r="B35" s="12">
+      <c r="B35" s="10">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="C35" s="12">
+      <c r="C35" s="10">
         <f t="shared" si="1"/>
         <v>9.1</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="11" t="str">
+      <c r="A36" s="9" t="str">
         <f>A16</f>
         <v>SquareRoot</v>
       </c>
-      <c r="B36" s="12">
+      <c r="B36" s="10">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C36" s="12">
+      <c r="C36" s="10">
         <f t="shared" si="1"/>
         <v>15.6</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="11" t="str">
+      <c r="A37" s="9" t="str">
         <f t="shared" si="0"/>
         <v>YesNo</v>
       </c>
-      <c r="B37" s="12">
+      <c r="B37" s="10">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C37" s="12">
+      <c r="C37" s="10">
         <f t="shared" si="1"/>
         <v>14.5</v>
       </c>
